--- a/data/Export_TDL_KKD_2425.xlsx
+++ b/data/Export_TDL_KKD_2425.xlsx
@@ -3247,28 +3247,28 @@
         <v>1.0</v>
       </c>
       <c r="P2" t="n">
-        <v>42.967</v>
+        <v>0.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>24.54</v>
+        <v>0.0</v>
       </c>
       <c r="R2" t="n">
-        <v>783.0</v>
+        <v>0.0</v>
       </c>
       <c r="S2" t="n">
-        <v>492.0</v>
+        <v>0.0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.3860322580645161</v>
+        <v>0.0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.7916129032258065</v>
+        <v>0.0</v>
       </c>
       <c r="V2" t="n">
-        <v>25.258064516129032</v>
+        <v>0.0</v>
       </c>
       <c r="W2" t="n">
-        <v>15.870967741935484</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -3318,28 +3318,28 @@
         <v>2.0</v>
       </c>
       <c r="P3" t="n">
-        <v>36.899</v>
+        <v>0.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>27.957</v>
+        <v>0.0</v>
       </c>
       <c r="R3" t="n">
-        <v>736.0</v>
+        <v>0.0</v>
       </c>
       <c r="S3" t="n">
-        <v>508.0</v>
+        <v>0.0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.1902903225806452</v>
+        <v>0.0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9018387096774194</v>
+        <v>0.0</v>
       </c>
       <c r="V3" t="n">
-        <v>23.741935483870968</v>
+        <v>0.0</v>
       </c>
       <c r="W3" t="n">
-        <v>16.387096774193548</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -3389,28 +3389,28 @@
         <v>3.0</v>
       </c>
       <c r="P4" t="n">
-        <v>42.852000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="Q4" t="n">
-        <v>31.018</v>
+        <v>0.0</v>
       </c>
       <c r="R4" t="n">
-        <v>726.0</v>
+        <v>0.0</v>
       </c>
       <c r="S4" t="n">
-        <v>515.0</v>
+        <v>0.0</v>
       </c>
       <c r="T4" t="n">
-        <v>1.3823225806451613</v>
+        <v>0.0</v>
       </c>
       <c r="U4" t="n">
-        <v>1.0005806451612904</v>
+        <v>0.0</v>
       </c>
       <c r="V4" t="n">
-        <v>23.419354838709676</v>
+        <v>0.0</v>
       </c>
       <c r="W4" t="n">
-        <v>16.612903225806452</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
@@ -3460,28 +3460,28 @@
         <v>4.0</v>
       </c>
       <c r="P5" t="n">
-        <v>44.725</v>
+        <v>0.0</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.111000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="R5" t="n">
-        <v>751.0</v>
+        <v>0.0</v>
       </c>
       <c r="S5" t="n">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.442741935483871</v>
+        <v>0.0</v>
       </c>
       <c r="U5" t="n">
-        <v>1.1326129032258065</v>
+        <v>0.0</v>
       </c>
       <c r="V5" t="n">
-        <v>24.225806451612904</v>
+        <v>0.0</v>
       </c>
       <c r="W5" t="n">
-        <v>21.129032258064516</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -3531,28 +3531,28 @@
         <v>5.0</v>
       </c>
       <c r="P6" t="n">
-        <v>39.078</v>
+        <v>0.0</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.922</v>
+        <v>0.0</v>
       </c>
       <c r="R6" t="n">
-        <v>737.0</v>
+        <v>0.0</v>
       </c>
       <c r="S6" t="n">
-        <v>534.0</v>
+        <v>0.0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.2605806451612904</v>
+        <v>0.0</v>
       </c>
       <c r="U6" t="n">
-        <v>1.0619999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="V6" t="n">
-        <v>23.774193548387096</v>
+        <v>0.0</v>
       </c>
       <c r="W6" t="n">
-        <v>17.225806451612904</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -3602,28 +3602,28 @@
         <v>6.0</v>
       </c>
       <c r="P7" t="n">
-        <v>35.995000000000005</v>
+        <v>0.0</v>
       </c>
       <c r="Q7" t="n">
-        <v>31.742000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="R7" t="n">
-        <v>714.0</v>
+        <v>0.0</v>
       </c>
       <c r="S7" t="n">
-        <v>574.0</v>
+        <v>0.0</v>
       </c>
       <c r="T7" t="n">
-        <v>1.1611290322580647</v>
+        <v>0.0</v>
       </c>
       <c r="U7" t="n">
-        <v>1.0239354838709678</v>
+        <v>0.0</v>
       </c>
       <c r="V7" t="n">
-        <v>23.032258064516128</v>
+        <v>0.0</v>
       </c>
       <c r="W7" t="n">
-        <v>18.516129032258064</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
@@ -3673,28 +3673,28 @@
         <v>7.0</v>
       </c>
       <c r="P8" t="n">
-        <v>38.516</v>
+        <v>0.0</v>
       </c>
       <c r="Q8" t="n">
-        <v>33.09</v>
+        <v>0.0</v>
       </c>
       <c r="R8" t="n">
-        <v>807.0</v>
+        <v>0.0</v>
       </c>
       <c r="S8" t="n">
-        <v>562.0</v>
+        <v>0.0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.2838666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="U8" t="n">
-        <v>1.1030000000000002</v>
+        <v>0.0</v>
       </c>
       <c r="V8" t="n">
-        <v>26.9</v>
+        <v>0.0</v>
       </c>
       <c r="W8" t="n">
-        <v>18.733333333333334</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -3744,28 +3744,28 @@
         <v>8.0</v>
       </c>
       <c r="P9" t="n">
-        <v>32.998999999999995</v>
+        <v>0.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>33.010999999999996</v>
+        <v>0.0</v>
       </c>
       <c r="R9" t="n">
-        <v>707.0</v>
+        <v>0.0</v>
       </c>
       <c r="S9" t="n">
-        <v>627.0</v>
+        <v>0.0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.0644838709677418</v>
+        <v>0.0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.0648709677419352</v>
+        <v>0.0</v>
       </c>
       <c r="V9" t="n">
-        <v>22.806451612903224</v>
+        <v>0.0</v>
       </c>
       <c r="W9" t="n">
-        <v>20.225806451612904</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
@@ -3815,28 +3815,28 @@
         <v>9.0</v>
       </c>
       <c r="P10" t="n">
-        <v>31.755</v>
+        <v>0.0</v>
       </c>
       <c r="Q10" t="n">
-        <v>33.444</v>
+        <v>0.0</v>
       </c>
       <c r="R10" t="n">
-        <v>517.0</v>
+        <v>0.0</v>
       </c>
       <c r="S10" t="n">
-        <v>648.0</v>
+        <v>0.0</v>
       </c>
       <c r="T10" t="n">
-        <v>1.0585</v>
+        <v>0.0</v>
       </c>
       <c r="U10" t="n">
-        <v>1.1148</v>
+        <v>0.0</v>
       </c>
       <c r="V10" t="n">
-        <v>17.233333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="W10" t="n">
-        <v>21.6</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
@@ -3886,28 +3886,28 @@
         <v>10.0</v>
       </c>
       <c r="P11" t="n">
-        <v>32.223</v>
+        <v>0.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>35.351</v>
+        <v>0.0</v>
       </c>
       <c r="R11" t="n">
-        <v>663.0</v>
+        <v>0.0</v>
       </c>
       <c r="S11" t="n">
-        <v>779.0</v>
+        <v>0.0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.0394516129032259</v>
+        <v>0.0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.1403548387096774</v>
+        <v>0.0</v>
       </c>
       <c r="V11" t="n">
-        <v>21.387096774193548</v>
+        <v>0.0</v>
       </c>
       <c r="W11" t="n">
-        <v>25.129032258064516</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
@@ -3957,28 +3957,28 @@
         <v>11.0</v>
       </c>
       <c r="P12" t="n">
-        <v>33.777</v>
+        <v>0.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.569</v>
+        <v>0.0</v>
       </c>
       <c r="R12" t="n">
-        <v>570.0</v>
+        <v>0.0</v>
       </c>
       <c r="S12" t="n">
-        <v>684.0</v>
+        <v>0.0</v>
       </c>
       <c r="T12" t="n">
-        <v>1.0895806451612904</v>
+        <v>0.0</v>
       </c>
       <c r="U12" t="n">
-        <v>1.0828709677419355</v>
+        <v>0.0</v>
       </c>
       <c r="V12" t="n">
-        <v>18.387096774193548</v>
+        <v>0.0</v>
       </c>
       <c r="W12" t="n">
-        <v>22.06451612903226</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
@@ -4028,28 +4028,28 @@
         <v>12.0</v>
       </c>
       <c r="P13" t="n">
-        <v>34.325</v>
+        <v>0.0</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.312</v>
+        <v>0.0</v>
       </c>
       <c r="R13" t="n">
-        <v>633.0</v>
+        <v>0.0</v>
       </c>
       <c r="S13" t="n">
-        <v>702.0</v>
+        <v>0.0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.1072580645161292</v>
+        <v>0.0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.2358709677419355</v>
+        <v>0.0</v>
       </c>
       <c r="V13" t="n">
-        <v>20.419354838709676</v>
+        <v>0.0</v>
       </c>
       <c r="W13" t="n">
-        <v>22.64516129032258</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
@@ -4099,28 +4099,28 @@
         <v>13.0</v>
       </c>
       <c r="P14" t="n">
-        <v>30.14</v>
+        <v>0.0</v>
       </c>
       <c r="Q14" t="n">
-        <v>35.659</v>
+        <v>0.0</v>
       </c>
       <c r="R14" t="n">
-        <v>722.0</v>
+        <v>0.0</v>
       </c>
       <c r="S14" t="n">
-        <v>678.0</v>
+        <v>0.0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.0046666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.1886333333333332</v>
+        <v>0.0</v>
       </c>
       <c r="V14" t="n">
-        <v>24.066666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="W14" t="n">
-        <v>22.6</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
@@ -4170,28 +4170,28 @@
         <v>14.0</v>
       </c>
       <c r="P15" t="n">
-        <v>34.152</v>
+        <v>0.0</v>
       </c>
       <c r="Q15" t="n">
-        <v>39.956</v>
+        <v>0.0</v>
       </c>
       <c r="R15" t="n">
-        <v>650.0</v>
+        <v>0.0</v>
       </c>
       <c r="S15" t="n">
-        <v>651.0</v>
+        <v>0.0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.1016774193548386</v>
+        <v>0.0</v>
       </c>
       <c r="U15" t="n">
-        <v>1.2889032258064517</v>
+        <v>0.0</v>
       </c>
       <c r="V15" t="n">
-        <v>20.967741935483872</v>
+        <v>0.0</v>
       </c>
       <c r="W15" t="n">
-        <v>21.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
@@ -4241,28 +4241,28 @@
         <v>15.0</v>
       </c>
       <c r="P16" t="n">
-        <v>36.128</v>
+        <v>0.0</v>
       </c>
       <c r="Q16" t="n">
-        <v>33.367000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="R16" t="n">
-        <v>558.0</v>
+        <v>0.0</v>
       </c>
       <c r="S16" t="n">
-        <v>617.0</v>
+        <v>0.0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.2457931034482759</v>
+        <v>0.0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.1505862068965518</v>
+        <v>0.0</v>
       </c>
       <c r="V16" t="n">
-        <v>19.24137931034483</v>
+        <v>0.0</v>
       </c>
       <c r="W16" t="n">
-        <v>21.275862068965516</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
@@ -4312,28 +4312,28 @@
         <v>16.0</v>
       </c>
       <c r="P17" t="n">
-        <v>35.168</v>
+        <v>0.0</v>
       </c>
       <c r="Q17" t="n">
-        <v>37.359</v>
+        <v>0.0</v>
       </c>
       <c r="R17" t="n">
-        <v>589.0</v>
+        <v>0.0</v>
       </c>
       <c r="S17" t="n">
-        <v>661.0</v>
+        <v>0.0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.1722666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.2453</v>
+        <v>0.0</v>
       </c>
       <c r="V17" t="n">
-        <v>19.633333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="W17" t="n">
-        <v>22.033333333333335</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
@@ -4383,28 +4383,28 @@
         <v>17.0</v>
       </c>
       <c r="P18" t="n">
-        <v>27.034</v>
+        <v>0.0</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.912</v>
+        <v>0.0</v>
       </c>
       <c r="R18" t="n">
-        <v>675.0</v>
+        <v>0.0</v>
       </c>
       <c r="S18" t="n">
-        <v>774.0</v>
+        <v>0.0</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8720645161290322</v>
+        <v>0.0</v>
       </c>
       <c r="U18" t="n">
-        <v>1.1584516129032258</v>
+        <v>0.0</v>
       </c>
       <c r="V18" t="n">
-        <v>21.774193548387096</v>
+        <v>0.0</v>
       </c>
       <c r="W18" t="n">
-        <v>24.967741935483872</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
@@ -4454,28 +4454,28 @@
         <v>18.0</v>
       </c>
       <c r="P19" t="n">
-        <v>23.065</v>
+        <v>0.0</v>
       </c>
       <c r="Q19" t="n">
-        <v>34.635000000000005</v>
+        <v>0.0</v>
       </c>
       <c r="R19" t="n">
-        <v>466.0</v>
+        <v>0.0</v>
       </c>
       <c r="S19" t="n">
-        <v>727.0</v>
+        <v>0.0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7688333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.1545</v>
+        <v>0.0</v>
       </c>
       <c r="V19" t="n">
-        <v>15.533333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="W19" t="n">
-        <v>24.233333333333334</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
@@ -4525,28 +4525,28 @@
         <v>19.0</v>
       </c>
       <c r="P20" t="n">
-        <v>30.016</v>
+        <v>0.0</v>
       </c>
       <c r="Q20" t="n">
-        <v>39.336</v>
+        <v>0.0</v>
       </c>
       <c r="R20" t="n">
-        <v>514.0</v>
+        <v>0.0</v>
       </c>
       <c r="S20" t="n">
-        <v>795.0</v>
+        <v>0.0</v>
       </c>
       <c r="T20" t="n">
-        <v>0.968258064516129</v>
+        <v>0.0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.2689032258064517</v>
+        <v>0.0</v>
       </c>
       <c r="V20" t="n">
-        <v>16.580645161290324</v>
+        <v>0.0</v>
       </c>
       <c r="W20" t="n">
-        <v>25.64516129032258</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
@@ -4596,28 +4596,28 @@
         <v>20.0</v>
       </c>
       <c r="P21" t="n">
-        <v>25.411</v>
+        <v>0.0</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.934</v>
+        <v>0.0</v>
       </c>
       <c r="R21" t="n">
-        <v>583.0</v>
+        <v>0.0</v>
       </c>
       <c r="S21" t="n">
-        <v>918.0</v>
+        <v>0.0</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8470333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="U21" t="n">
-        <v>1.3644666666666665</v>
+        <v>0.0</v>
       </c>
       <c r="V21" t="n">
-        <v>19.433333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="W21" t="n">
-        <v>30.6</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -4717,18 +4717,10 @@
       <c r="J2" t="s">
         <v>716</v>
       </c>
-      <c r="K2" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.447</v>
-      </c>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
       <c r="O2" t="n">
         <v>2.01</v>
       </c>
@@ -4770,18 +4762,10 @@
       <c r="J3" t="s">
         <v>717</v>
       </c>
-      <c r="K3" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.737</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.875</v>
-      </c>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
       <c r="O3" t="n">
         <v>2.26</v>
       </c>
@@ -4823,18 +4807,10 @@
       <c r="J4" t="s">
         <v>718</v>
       </c>
-      <c r="K4" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.707</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.591</v>
-      </c>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
       <c r="O4" t="n">
         <v>1.625</v>
       </c>
@@ -4876,18 +4852,10 @@
       <c r="J5" t="s">
         <v>719</v>
       </c>
-      <c r="K5" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.312</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.273</v>
-      </c>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
       <c r="O5" t="n">
         <v>2.88</v>
       </c>
@@ -4929,18 +4897,10 @@
       <c r="J6" t="s">
         <v>720</v>
       </c>
-      <c r="K6" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.552</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.048</v>
-      </c>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
       <c r="O6" t="n">
         <v>2.03</v>
       </c>
@@ -4982,18 +4942,10 @@
       <c r="J7" t="s">
         <v>721</v>
       </c>
-      <c r="K7" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.695</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.033</v>
-      </c>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
       <c r="O7" t="n">
         <v>3.59</v>
       </c>
@@ -5035,18 +4987,10 @@
       <c r="J8" t="s">
         <v>722</v>
       </c>
-      <c r="K8" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.953</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1.1239999999999999</v>
-      </c>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
       <c r="O8" t="n">
         <v>1.781</v>
       </c>
@@ -5088,18 +5032,10 @@
       <c r="J9" t="s">
         <v>723</v>
       </c>
-      <c r="K9" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.8760000000000001</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1.488</v>
-      </c>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
       <c r="O9" t="n">
         <v>1.826</v>
       </c>
@@ -5141,18 +5077,10 @@
       <c r="J10" t="s">
         <v>724</v>
       </c>
-      <c r="K10" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.645</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1.106</v>
-      </c>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
       <c r="O10" t="n">
         <v>2.9</v>
       </c>
@@ -5194,18 +5122,10 @@
       <c r="J11" t="s">
         <v>725</v>
       </c>
-      <c r="K11" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.2610000000000001</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1.339</v>
-      </c>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
       <c r="O11" t="n">
         <v>2.02</v>
       </c>
@@ -5247,18 +5167,10 @@
       <c r="J12" t="s">
         <v>726</v>
       </c>
-      <c r="K12" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.491</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.751</v>
-      </c>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
       <c r="O12" t="n">
         <v>2.67</v>
       </c>
@@ -5300,18 +5212,10 @@
       <c r="J13" t="s">
         <v>727</v>
       </c>
-      <c r="K13" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.513</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.978</v>
-      </c>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
       <c r="O13" t="n">
         <v>2.27</v>
       </c>
@@ -5353,18 +5257,10 @@
       <c r="J14" t="s">
         <v>728</v>
       </c>
-      <c r="K14" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.964</v>
-      </c>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
       <c r="O14" t="n">
         <v>2.13</v>
       </c>
@@ -5406,18 +5302,10 @@
       <c r="J15" t="s">
         <v>729</v>
       </c>
-      <c r="K15" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>2.243</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.513</v>
-      </c>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
       <c r="O15" t="n">
         <v>1.934</v>
       </c>
@@ -5459,18 +5347,10 @@
       <c r="J16" t="s">
         <v>730</v>
       </c>
-      <c r="K16" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.5910000000000001</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.626</v>
-      </c>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
       <c r="O16" t="n">
         <v>1.719</v>
       </c>
@@ -5512,18 +5392,10 @@
       <c r="J17" t="s">
         <v>731</v>
       </c>
-      <c r="K17" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>2.506</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.764</v>
-      </c>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
       <c r="O17" t="n">
         <v>2.19</v>
       </c>
@@ -5565,18 +5437,10 @@
       <c r="J18" t="s">
         <v>732</v>
       </c>
-      <c r="K18" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.749</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1.223</v>
-      </c>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
       <c r="O18" t="n">
         <v>2.83</v>
       </c>
@@ -5618,18 +5482,10 @@
       <c r="J19" t="s">
         <v>733</v>
       </c>
-      <c r="K19" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.908</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1.625</v>
-      </c>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
       <c r="O19" t="n">
         <v>2.22</v>
       </c>
@@ -5671,18 +5527,10 @@
       <c r="J20" t="s">
         <v>734</v>
       </c>
-      <c r="K20" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0.535</v>
-      </c>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
       <c r="O20" t="n">
         <v>1.684</v>
       </c>
@@ -5724,18 +5572,10 @@
       <c r="J21" t="s">
         <v>735</v>
       </c>
-      <c r="K21" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.849</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0.898</v>
-      </c>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
       <c r="O21" t="n">
         <v>2.24</v>
       </c>
@@ -5777,18 +5617,10 @@
       <c r="J22" t="s">
         <v>736</v>
       </c>
-      <c r="K22" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.838</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1.411</v>
-      </c>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
       <c r="O22" t="n">
         <v>1.561</v>
       </c>
@@ -5830,18 +5662,10 @@
       <c r="J23" t="s">
         <v>737</v>
       </c>
-      <c r="K23" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.171</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1.166</v>
-      </c>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
       <c r="O23" t="n">
         <v>2.17</v>
       </c>
@@ -5883,18 +5707,10 @@
       <c r="J24" t="s">
         <v>738</v>
       </c>
-      <c r="K24" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.653</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0.552</v>
-      </c>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
       <c r="O24" t="n">
         <v>1.826</v>
       </c>
@@ -5936,18 +5752,10 @@
       <c r="J25" t="s">
         <v>739</v>
       </c>
-      <c r="K25" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.074</v>
-      </c>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
       <c r="O25" t="n">
         <v>1.49</v>
       </c>
@@ -5989,18 +5797,10 @@
       <c r="J26" t="s">
         <v>740</v>
       </c>
-      <c r="K26" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.662</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
       <c r="O26" t="n">
         <v>3.36</v>
       </c>
@@ -6042,18 +5842,10 @@
       <c r="J27" t="s">
         <v>741</v>
       </c>
-      <c r="K27" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.765</v>
-      </c>
-      <c r="N27" t="n">
-        <v>1.1920000000000002</v>
-      </c>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
       <c r="O27" t="n">
         <v>1.787</v>
       </c>
@@ -6095,18 +5887,10 @@
       <c r="J28" t="s">
         <v>742</v>
       </c>
-      <c r="K28" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.731</v>
-      </c>
-      <c r="N28" t="n">
-        <v>1.675</v>
-      </c>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
       <c r="O28" t="n">
         <v>3.0</v>
       </c>
@@ -6148,18 +5932,10 @@
       <c r="J29" t="s">
         <v>743</v>
       </c>
-      <c r="K29" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.0999999999999999</v>
-      </c>
-      <c r="N29" t="n">
-        <v>1.404</v>
-      </c>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
       <c r="O29" t="n">
         <v>2.31</v>
       </c>
@@ -6201,18 +5977,10 @@
       <c r="J30" t="s">
         <v>744</v>
       </c>
-      <c r="K30" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.923</v>
-      </c>
-      <c r="N30" t="n">
-        <v>1.065</v>
-      </c>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
       <c r="O30" t="n">
         <v>2.08</v>
       </c>
@@ -6254,18 +6022,10 @@
       <c r="J31" t="s">
         <v>745</v>
       </c>
-      <c r="K31" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.457</v>
-      </c>
-      <c r="N31" t="n">
-        <v>1.531</v>
-      </c>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
       <c r="O31" t="n">
         <v>2.37</v>
       </c>
@@ -6307,18 +6067,10 @@
       <c r="J32" t="s">
         <v>746</v>
       </c>
-      <c r="K32" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.025</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0.6880000000000001</v>
-      </c>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
       <c r="O32" t="n">
         <v>2.06</v>
       </c>
@@ -6360,18 +6112,10 @@
       <c r="J33" t="s">
         <v>747</v>
       </c>
-      <c r="K33" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.212</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0.808</v>
-      </c>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
       <c r="O33" t="n">
         <v>2.64</v>
       </c>
@@ -6413,18 +6157,10 @@
       <c r="J34" t="s">
         <v>748</v>
       </c>
-      <c r="K34" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0.522</v>
-      </c>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
       <c r="O34" t="n">
         <v>3.24</v>
       </c>
@@ -6466,18 +6202,10 @@
       <c r="J35" t="s">
         <v>749</v>
       </c>
-      <c r="K35" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.408</v>
-      </c>
-      <c r="N35" t="n">
-        <v>1.346</v>
-      </c>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
       <c r="O35" t="n">
         <v>2.74</v>
       </c>
@@ -6519,18 +6247,10 @@
       <c r="J36" t="s">
         <v>750</v>
       </c>
-      <c r="K36" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.349</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0.9490000000000001</v>
-      </c>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
       <c r="O36" t="n">
         <v>2.03</v>
       </c>
@@ -6572,18 +6292,10 @@
       <c r="J37" t="s">
         <v>751</v>
       </c>
-      <c r="K37" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.562</v>
-      </c>
-      <c r="N37" t="n">
-        <v>1.039</v>
-      </c>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
       <c r="O37" t="n">
         <v>1.581</v>
       </c>
@@ -6625,18 +6337,10 @@
       <c r="J38" t="s">
         <v>752</v>
       </c>
-      <c r="K38" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.286</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0.48200000000000004</v>
-      </c>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
       <c r="O38" t="n">
         <v>2.2</v>
       </c>
@@ -6678,18 +6382,10 @@
       <c r="J39" t="s">
         <v>753</v>
       </c>
-      <c r="K39" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.301</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0.449</v>
-      </c>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
       <c r="O39" t="n">
         <v>1.571</v>
       </c>
@@ -6731,18 +6427,10 @@
       <c r="J40" t="s">
         <v>210</v>
       </c>
-      <c r="K40" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.059</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0.731</v>
-      </c>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
       <c r="O40" t="n">
         <v>1.943</v>
       </c>
@@ -6784,18 +6472,10 @@
       <c r="J41" t="s">
         <v>754</v>
       </c>
-      <c r="K41" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.856</v>
-      </c>
-      <c r="N41" t="n">
-        <v>1.097</v>
-      </c>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
       <c r="O41" t="n">
         <v>1.961</v>
       </c>
@@ -6837,18 +6517,10 @@
       <c r="J42" t="s">
         <v>755</v>
       </c>
-      <c r="K42" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0.645</v>
-      </c>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
       <c r="O42" t="n">
         <v>1.52</v>
       </c>
@@ -6890,18 +6562,10 @@
       <c r="J43" t="s">
         <v>756</v>
       </c>
-      <c r="K43" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.328</v>
-      </c>
-      <c r="N43" t="n">
-        <v>1.204</v>
-      </c>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
       <c r="O43" t="n">
         <v>1.699</v>
       </c>
@@ -6943,18 +6607,10 @@
       <c r="J44" t="s">
         <v>757</v>
       </c>
-      <c r="K44" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.729</v>
-      </c>
-      <c r="N44" t="n">
-        <v>1.19</v>
-      </c>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
       <c r="O44" t="n">
         <v>2.33</v>
       </c>
@@ -6996,18 +6652,10 @@
       <c r="J45" t="s">
         <v>758</v>
       </c>
-      <c r="K45" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.308</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0.8130000000000001</v>
-      </c>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
       <c r="O45" t="n">
         <v>1.632</v>
       </c>
@@ -7049,18 +6697,10 @@
       <c r="J46" t="s">
         <v>759</v>
       </c>
-      <c r="K46" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.934</v>
-      </c>
-      <c r="N46" t="n">
-        <v>1.448</v>
-      </c>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
       <c r="O46" t="n">
         <v>3.13</v>
       </c>
@@ -7102,18 +6742,10 @@
       <c r="J47" t="s">
         <v>760</v>
       </c>
-      <c r="K47" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.264</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0.502</v>
-      </c>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
       <c r="O47" t="n">
         <v>2.46</v>
       </c>
@@ -7155,18 +6787,10 @@
       <c r="J48" t="s">
         <v>761</v>
       </c>
-      <c r="K48" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.669</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0.382</v>
-      </c>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
       <c r="O48" t="n">
         <v>1.877</v>
       </c>
@@ -7208,18 +6832,10 @@
       <c r="J49" t="s">
         <v>762</v>
       </c>
-      <c r="K49" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.6540000000000001</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0.608</v>
-      </c>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
       <c r="O49" t="n">
         <v>2.45</v>
       </c>
@@ -7261,18 +6877,10 @@
       <c r="J50" t="s">
         <v>763</v>
       </c>
-      <c r="K50" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.746</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0.9</v>
-      </c>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
       <c r="O50" t="n">
         <v>1.775</v>
       </c>
@@ -7314,18 +6922,10 @@
       <c r="J51" t="s">
         <v>764</v>
       </c>
-      <c r="K51" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1.842</v>
-      </c>
-      <c r="N51" t="n">
-        <v>0.851</v>
-      </c>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
       <c r="O51" t="n">
         <v>2.16</v>
       </c>
@@ -7367,18 +6967,10 @@
       <c r="J52" t="s">
         <v>765</v>
       </c>
-      <c r="K52" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="N52" t="n">
-        <v>1.105</v>
-      </c>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
       <c r="O52" t="n">
         <v>2.41</v>
       </c>
@@ -7420,18 +7012,10 @@
       <c r="J53" t="s">
         <v>766</v>
       </c>
-      <c r="K53" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.086</v>
-      </c>
-      <c r="N53" t="n">
-        <v>1.5150000000000001</v>
-      </c>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
       <c r="O53" t="n">
         <v>1.787</v>
       </c>
@@ -7473,18 +7057,10 @@
       <c r="J54" t="s">
         <v>767</v>
       </c>
-      <c r="K54" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>2.132</v>
-      </c>
-      <c r="N54" t="n">
-        <v>1.983</v>
-      </c>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
       <c r="O54" t="n">
         <v>1.98</v>
       </c>
@@ -7526,18 +7102,10 @@
       <c r="J55" t="s">
         <v>768</v>
       </c>
-      <c r="K55" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0.959</v>
-      </c>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
       <c r="O55" t="n">
         <v>2.72</v>
       </c>
@@ -7579,18 +7147,10 @@
       <c r="J56" t="s">
         <v>769</v>
       </c>
-      <c r="K56" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1.483</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0.628</v>
-      </c>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
       <c r="O56" t="n">
         <v>1.704</v>
       </c>
@@ -7632,18 +7192,10 @@
       <c r="J57" t="s">
         <v>770</v>
       </c>
-      <c r="K57" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.928</v>
-      </c>
-      <c r="N57" t="n">
-        <v>1.475</v>
-      </c>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
       <c r="O57" t="n">
         <v>4.43</v>
       </c>
@@ -7685,18 +7237,10 @@
       <c r="J58" t="s">
         <v>771</v>
       </c>
-      <c r="K58" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="L58" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="M58" t="n">
-        <v>1.055</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0.612</v>
-      </c>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
       <c r="O58" t="n">
         <v>1.574</v>
       </c>
@@ -7738,18 +7282,10 @@
       <c r="J59" t="s">
         <v>772</v>
       </c>
-      <c r="K59" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L59" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="M59" t="n">
-        <v>1.194</v>
-      </c>
-      <c r="N59" t="n">
-        <v>0.292</v>
-      </c>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
       <c r="O59" t="n">
         <v>2.14</v>
       </c>
@@ -7791,18 +7327,10 @@
       <c r="J60" t="s">
         <v>773</v>
       </c>
-      <c r="K60" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="M60" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="N60" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
       <c r="O60" t="n">
         <v>2.24</v>
       </c>
@@ -7844,18 +7372,10 @@
       <c r="J61" t="s">
         <v>774</v>
       </c>
-      <c r="K61" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="M61" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="N61" t="n">
-        <v>0.921</v>
-      </c>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
       <c r="O61" t="n">
         <v>2.02</v>
       </c>
@@ -7897,18 +7417,10 @@
       <c r="J62" t="s">
         <v>775</v>
       </c>
-      <c r="K62" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.825</v>
-      </c>
-      <c r="N62" t="n">
-        <v>0.936</v>
-      </c>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
       <c r="O62" t="n">
         <v>2.54</v>
       </c>
@@ -7950,18 +7462,10 @@
       <c r="J63" t="s">
         <v>776</v>
       </c>
-      <c r="K63" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.7060000000000001</v>
-      </c>
-      <c r="N63" t="n">
-        <v>1.542</v>
-      </c>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
       <c r="O63" t="n">
         <v>3.46</v>
       </c>
@@ -8003,18 +7507,10 @@
       <c r="J64" t="s">
         <v>777</v>
       </c>
-      <c r="K64" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="M64" t="n">
-        <v>1.363</v>
-      </c>
-      <c r="N64" t="n">
-        <v>1.9949999999999999</v>
-      </c>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
       <c r="O64" t="n">
         <v>2.35</v>
       </c>
@@ -8056,18 +7552,10 @@
       <c r="J65" t="s">
         <v>778</v>
       </c>
-      <c r="K65" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="N65" t="n">
-        <v>0.546</v>
-      </c>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
       <c r="O65" t="n">
         <v>2.06</v>
       </c>
@@ -8109,18 +7597,10 @@
       <c r="J66" t="s">
         <v>779</v>
       </c>
-      <c r="K66" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="L66" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="M66" t="n">
-        <v>1.643</v>
-      </c>
-      <c r="N66" t="n">
-        <v>0.6859999999999999</v>
-      </c>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
       <c r="O66" t="n">
         <v>2.04</v>
       </c>
@@ -8162,18 +7642,10 @@
       <c r="J67" t="s">
         <v>780</v>
       </c>
-      <c r="K67" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="L67" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1.443</v>
-      </c>
-      <c r="N67" t="n">
-        <v>0.727</v>
-      </c>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
       <c r="O67" t="n">
         <v>1.917</v>
       </c>
@@ -8215,18 +7687,10 @@
       <c r="J68" t="s">
         <v>781</v>
       </c>
-      <c r="K68" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="L68" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="N68" t="n">
-        <v>0.919</v>
-      </c>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
       <c r="O68" t="n">
         <v>1.806</v>
       </c>
@@ -8268,18 +7732,10 @@
       <c r="J69" t="s">
         <v>782</v>
       </c>
-      <c r="K69" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="M69" t="n">
-        <v>1.5070000000000001</v>
-      </c>
-      <c r="N69" t="n">
-        <v>0.732</v>
-      </c>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
       <c r="O69" t="n">
         <v>2.49</v>
       </c>
@@ -8321,18 +7777,10 @@
       <c r="J70" t="s">
         <v>783</v>
       </c>
-      <c r="K70" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="M70" t="n">
-        <v>1.836</v>
-      </c>
-      <c r="N70" t="n">
-        <v>0.902</v>
-      </c>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
       <c r="O70" t="n">
         <v>2.76</v>
       </c>
@@ -8374,18 +7822,10 @@
       <c r="J71" t="s">
         <v>784</v>
       </c>
-      <c r="K71" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="L71" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="N71" t="n">
-        <v>1.447</v>
-      </c>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
       <c r="O71" t="n">
         <v>2.4</v>
       </c>
@@ -8427,18 +7867,10 @@
       <c r="J72" t="s">
         <v>785</v>
       </c>
-      <c r="K72" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0.6980000000000001</v>
-      </c>
-      <c r="N72" t="n">
-        <v>0.8059999999999999</v>
-      </c>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
       <c r="O72" t="n">
         <v>2.92</v>
       </c>
@@ -8480,18 +7912,10 @@
       <c r="J73" t="s">
         <v>786</v>
       </c>
-      <c r="K73" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="L73" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="M73" t="n">
-        <v>1.984</v>
-      </c>
-      <c r="N73" t="n">
-        <v>1.469</v>
-      </c>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
       <c r="O73" t="n">
         <v>1.609</v>
       </c>
@@ -8533,18 +7957,10 @@
       <c r="J74" t="s">
         <v>787</v>
       </c>
-      <c r="K74" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="L74" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="M74" t="n">
-        <v>1.476</v>
-      </c>
-      <c r="N74" t="n">
-        <v>0.202</v>
-      </c>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
       <c r="O74" t="n">
         <v>1.398</v>
       </c>
@@ -8586,18 +8002,10 @@
       <c r="J75" t="s">
         <v>788</v>
       </c>
-      <c r="K75" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="L75" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="M75" t="n">
-        <v>1.937</v>
-      </c>
-      <c r="N75" t="n">
-        <v>0.9470000000000001</v>
-      </c>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
       <c r="O75" t="n">
         <v>1.833</v>
       </c>
@@ -8639,18 +8047,10 @@
       <c r="J76" t="s">
         <v>789</v>
       </c>
-      <c r="K76" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="L76" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="M76" t="n">
-        <v>1.391</v>
-      </c>
-      <c r="N76" t="n">
-        <v>0.608</v>
-      </c>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
       <c r="O76" t="n">
         <v>1.411</v>
       </c>
@@ -8692,18 +8092,10 @@
       <c r="J77" t="s">
         <v>790</v>
       </c>
-      <c r="K77" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="L77" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.698</v>
-      </c>
-      <c r="N77" t="n">
-        <v>1.546</v>
-      </c>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
       <c r="O77" t="n">
         <v>1.952</v>
       </c>
@@ -8745,18 +8137,10 @@
       <c r="J78" t="s">
         <v>791</v>
       </c>
-      <c r="K78" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="M78" t="n">
-        <v>1.609</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0.48800000000000004</v>
-      </c>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
       <c r="O78" t="n">
         <v>1.943</v>
       </c>
@@ -8798,18 +8182,10 @@
       <c r="J79" t="s">
         <v>792</v>
       </c>
-      <c r="K79" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L79" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.836</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0.968</v>
-      </c>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
       <c r="O79" t="n">
         <v>2.05</v>
       </c>
@@ -8851,18 +8227,10 @@
       <c r="J80" t="s">
         <v>793</v>
       </c>
-      <c r="K80" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="L80" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.466</v>
-      </c>
-      <c r="N80" t="n">
-        <v>0.63</v>
-      </c>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
       <c r="O80" t="n">
         <v>2.3</v>
       </c>
@@ -8904,18 +8272,10 @@
       <c r="J81" t="s">
         <v>794</v>
       </c>
-      <c r="K81" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="L81" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.799</v>
-      </c>
-      <c r="N81" t="n">
-        <v>1.216</v>
-      </c>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
       <c r="O81" t="n">
         <v>2.94</v>
       </c>
@@ -8957,18 +8317,10 @@
       <c r="J82" t="s">
         <v>795</v>
       </c>
-      <c r="K82" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L82" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="M82" t="n">
-        <v>1.427</v>
-      </c>
-      <c r="N82" t="n">
-        <v>2.056</v>
-      </c>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
       <c r="O82" t="n">
         <v>2.07</v>
       </c>
@@ -9010,18 +8362,10 @@
       <c r="J83" t="s">
         <v>796</v>
       </c>
-      <c r="K83" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="L83" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="M83" t="n">
-        <v>1.411</v>
-      </c>
-      <c r="N83" t="n">
-        <v>1.212</v>
-      </c>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
       <c r="O83" t="n">
         <v>2.11</v>
       </c>
@@ -9063,18 +8407,10 @@
       <c r="J84" t="s">
         <v>797</v>
       </c>
-      <c r="K84" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="L84" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="M84" t="n">
-        <v>1.822</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0.312</v>
-      </c>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
       <c r="O84" t="n">
         <v>1.806</v>
       </c>
@@ -9116,18 +8452,10 @@
       <c r="J85" t="s">
         <v>798</v>
       </c>
-      <c r="K85" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="L85" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="M85" t="n">
-        <v>1.047</v>
-      </c>
-      <c r="N85" t="n">
-        <v>1.415</v>
-      </c>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
       <c r="O85" t="n">
         <v>1.609</v>
       </c>
@@ -9169,18 +8497,10 @@
       <c r="J86" t="s">
         <v>799</v>
       </c>
-      <c r="K86" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="L86" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="N86" t="n">
-        <v>1.0270000000000001</v>
-      </c>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
       <c r="O86" t="n">
         <v>3.2</v>
       </c>
@@ -9222,18 +8542,10 @@
       <c r="J87" t="s">
         <v>800</v>
       </c>
-      <c r="K87" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="L87" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="M87" t="n">
-        <v>2.573</v>
-      </c>
-      <c r="N87" t="n">
-        <v>0.876</v>
-      </c>
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="M87"/>
+      <c r="N87"/>
       <c r="O87" t="n">
         <v>1.423</v>
       </c>
@@ -9275,18 +8587,10 @@
       <c r="J88" t="s">
         <v>801</v>
       </c>
-      <c r="K88" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="L88" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.593</v>
-      </c>
-      <c r="N88" t="n">
-        <v>1.373</v>
-      </c>
+      <c r="K88"/>
+      <c r="L88"/>
+      <c r="M88"/>
+      <c r="N88"/>
       <c r="O88" t="n">
         <v>2.41</v>
       </c>
@@ -9328,18 +8632,10 @@
       <c r="J89" t="s">
         <v>802</v>
       </c>
-      <c r="K89" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="L89" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="M89" t="n">
-        <v>1.1119999999999999</v>
-      </c>
-      <c r="N89" t="n">
-        <v>0.40599999999999997</v>
-      </c>
+      <c r="K89"/>
+      <c r="L89"/>
+      <c r="M89"/>
+      <c r="N89"/>
       <c r="O89" t="n">
         <v>2.64</v>
       </c>
@@ -9381,18 +8677,10 @@
       <c r="J90" t="s">
         <v>803</v>
       </c>
-      <c r="K90" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="L90" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="M90" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N90" t="n">
-        <v>1.317</v>
-      </c>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90"/>
       <c r="O90" t="n">
         <v>5.1</v>
       </c>
@@ -9434,18 +8722,10 @@
       <c r="J91" t="s">
         <v>423</v>
       </c>
-      <c r="K91" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="L91" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="M91" t="n">
-        <v>1.1019999999999999</v>
-      </c>
-      <c r="N91" t="n">
-        <v>1.429</v>
-      </c>
+      <c r="K91"/>
+      <c r="L91"/>
+      <c r="M91"/>
+      <c r="N91"/>
       <c r="O91" t="n">
         <v>2.73</v>
       </c>
@@ -9487,18 +8767,10 @@
       <c r="J92" t="s">
         <v>804</v>
       </c>
-      <c r="K92" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L92" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.075</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0.808</v>
-      </c>
+      <c r="K92"/>
+      <c r="L92"/>
+      <c r="M92"/>
+      <c r="N92"/>
       <c r="O92" t="n">
         <v>2.53</v>
       </c>
@@ -9540,18 +8812,10 @@
       <c r="J93" t="s">
         <v>805</v>
       </c>
-      <c r="K93" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="L93" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.634</v>
-      </c>
-      <c r="N93" t="n">
-        <v>1.575</v>
-      </c>
+      <c r="K93"/>
+      <c r="L93"/>
+      <c r="M93"/>
+      <c r="N93"/>
       <c r="O93" t="n">
         <v>2.04</v>
       </c>
@@ -9593,18 +8857,10 @@
       <c r="J94" t="s">
         <v>806</v>
       </c>
-      <c r="K94" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="L94" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0.41100000000000003</v>
-      </c>
+      <c r="K94"/>
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="N94"/>
       <c r="O94" t="n">
         <v>2.12</v>
       </c>
@@ -9646,18 +8902,10 @@
       <c r="J95" t="s">
         <v>546</v>
       </c>
-      <c r="K95" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="L95" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="M95" t="n">
-        <v>1.495</v>
-      </c>
-      <c r="N95" t="n">
-        <v>0.5770000000000001</v>
-      </c>
+      <c r="K95"/>
+      <c r="L95"/>
+      <c r="M95"/>
+      <c r="N95"/>
       <c r="O95" t="n">
         <v>3.4</v>
       </c>
@@ -9699,18 +8947,10 @@
       <c r="J96" t="s">
         <v>807</v>
       </c>
-      <c r="K96" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="L96" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="M96" t="n">
-        <v>1.178</v>
-      </c>
-      <c r="N96" t="n">
-        <v>0.971</v>
-      </c>
+      <c r="K96"/>
+      <c r="L96"/>
+      <c r="M96"/>
+      <c r="N96"/>
       <c r="O96" t="n">
         <v>1.395</v>
       </c>
@@ -9752,18 +8992,10 @@
       <c r="J97" t="s">
         <v>808</v>
       </c>
-      <c r="K97" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="L97" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="M97" t="n">
-        <v>1.703</v>
-      </c>
-      <c r="N97" t="n">
-        <v>0.87</v>
-      </c>
+      <c r="K97"/>
+      <c r="L97"/>
+      <c r="M97"/>
+      <c r="N97"/>
       <c r="O97" t="n">
         <v>2.16</v>
       </c>
@@ -9805,18 +9037,10 @@
       <c r="J98" t="s">
         <v>809</v>
       </c>
-      <c r="K98" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="N98" t="n">
-        <v>1.22</v>
-      </c>
+      <c r="K98"/>
+      <c r="L98"/>
+      <c r="M98"/>
+      <c r="N98"/>
       <c r="O98" t="n">
         <v>2.98</v>
       </c>
@@ -9858,18 +9082,10 @@
       <c r="J99" t="s">
         <v>810</v>
       </c>
-      <c r="K99" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="M99" t="n">
-        <v>2.114</v>
-      </c>
-      <c r="N99" t="n">
-        <v>0.397</v>
-      </c>
+      <c r="K99"/>
+      <c r="L99"/>
+      <c r="M99"/>
+      <c r="N99"/>
       <c r="O99" t="n">
         <v>1.917</v>
       </c>
@@ -9911,18 +9127,10 @@
       <c r="J100" t="s">
         <v>811</v>
       </c>
-      <c r="K100" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="L100" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="M100" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="N100" t="n">
-        <v>0.685</v>
-      </c>
+      <c r="K100"/>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100"/>
       <c r="O100" t="n">
         <v>1.564</v>
       </c>
@@ -9964,18 +9172,10 @@
       <c r="J101" t="s">
         <v>812</v>
       </c>
-      <c r="K101" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="L101" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.453</v>
-      </c>
-      <c r="N101" t="n">
-        <v>1.3639999999999999</v>
-      </c>
+      <c r="K101"/>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
       <c r="O101" t="n">
         <v>2.09</v>
       </c>
@@ -10017,18 +9217,10 @@
       <c r="J102" t="s">
         <v>813</v>
       </c>
-      <c r="K102" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="L102" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="M102" t="n">
-        <v>0.908</v>
-      </c>
-      <c r="N102" t="n">
-        <v>1.196</v>
-      </c>
+      <c r="K102"/>
+      <c r="L102"/>
+      <c r="M102"/>
+      <c r="N102"/>
       <c r="O102" t="n">
         <v>3.76</v>
       </c>
@@ -10070,18 +9262,10 @@
       <c r="J103" t="s">
         <v>814</v>
       </c>
-      <c r="K103" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="L103" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="M103" t="n">
-        <v>0.6319999999999999</v>
-      </c>
-      <c r="N103" t="n">
-        <v>1.464</v>
-      </c>
+      <c r="K103"/>
+      <c r="L103"/>
+      <c r="M103"/>
+      <c r="N103"/>
       <c r="O103" t="n">
         <v>3.45</v>
       </c>
@@ -10123,18 +9307,10 @@
       <c r="J104" t="s">
         <v>815</v>
       </c>
-      <c r="K104" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="L104" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="M104" t="n">
-        <v>1.172</v>
-      </c>
-      <c r="N104" t="n">
-        <v>0.794</v>
-      </c>
+      <c r="K104"/>
+      <c r="L104"/>
+      <c r="M104"/>
+      <c r="N104"/>
       <c r="O104" t="n">
         <v>4.42</v>
       </c>
@@ -10176,18 +9352,10 @@
       <c r="J105" t="s">
         <v>816</v>
       </c>
-      <c r="K105" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="L105" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="M105" t="n">
-        <v>0.675</v>
-      </c>
-      <c r="N105" t="n">
-        <v>2.065</v>
-      </c>
+      <c r="K105"/>
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105"/>
       <c r="O105" t="n">
         <v>2.16</v>
       </c>
@@ -10229,18 +9397,10 @@
       <c r="J106" t="s">
         <v>817</v>
       </c>
-      <c r="K106" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="L106" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="M106" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="N106" t="n">
-        <v>1.1</v>
-      </c>
+      <c r="K106"/>
+      <c r="L106"/>
+      <c r="M106"/>
+      <c r="N106"/>
       <c r="O106" t="n">
         <v>4.68</v>
       </c>
@@ -10282,18 +9442,10 @@
       <c r="J107" t="s">
         <v>818</v>
       </c>
-      <c r="K107" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="L107" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="M107" t="n">
-        <v>0.607</v>
-      </c>
-      <c r="N107" t="n">
-        <v>0.672</v>
-      </c>
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107"/>
+      <c r="N107"/>
       <c r="O107" t="n">
         <v>1.645</v>
       </c>
@@ -10335,18 +9487,10 @@
       <c r="J108" t="s">
         <v>819</v>
       </c>
-      <c r="K108" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="L108" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="M108" t="n">
-        <v>1.931</v>
-      </c>
-      <c r="N108" t="n">
-        <v>1.443</v>
-      </c>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
       <c r="O108" t="n">
         <v>1.787</v>
       </c>
@@ -10388,18 +9532,10 @@
       <c r="J109" t="s">
         <v>820</v>
       </c>
-      <c r="K109" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="L109" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="M109" t="n">
-        <v>0.6920000000000001</v>
-      </c>
-      <c r="N109" t="n">
-        <v>0.335</v>
-      </c>
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
       <c r="O109" t="n">
         <v>1.286</v>
       </c>
@@ -10441,18 +9577,10 @@
       <c r="J110" t="s">
         <v>821</v>
       </c>
-      <c r="K110" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="L110" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="M110" t="n">
-        <v>0.542</v>
-      </c>
-      <c r="N110" t="n">
-        <v>0.505</v>
-      </c>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
       <c r="O110" t="n">
         <v>2.27</v>
       </c>
@@ -10494,18 +9622,10 @@
       <c r="J111" t="s">
         <v>822</v>
       </c>
-      <c r="K111" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="L111" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="M111" t="n">
-        <v>1.098</v>
-      </c>
-      <c r="N111" t="n">
-        <v>1.199</v>
-      </c>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111"/>
       <c r="O111" t="n">
         <v>1.833</v>
       </c>
@@ -10547,18 +9667,10 @@
       <c r="J112" t="s">
         <v>823</v>
       </c>
-      <c r="K112" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="L112" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="M112" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="N112" t="n">
-        <v>0.7260000000000001</v>
-      </c>
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
       <c r="O112" t="n">
         <v>1.465</v>
       </c>
@@ -10600,18 +9712,10 @@
       <c r="J113" t="s">
         <v>824</v>
       </c>
-      <c r="K113" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="L113" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="M113" t="n">
-        <v>1.212</v>
-      </c>
-      <c r="N113" t="n">
-        <v>0.533</v>
-      </c>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
       <c r="O113" t="n">
         <v>1.505</v>
       </c>
@@ -10653,18 +9757,10 @@
       <c r="J114" t="s">
         <v>825</v>
       </c>
-      <c r="K114" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="L114" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="M114" t="n">
-        <v>2.039</v>
-      </c>
-      <c r="N114" t="n">
-        <v>1.515</v>
-      </c>
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
       <c r="O114" t="n">
         <v>1.9</v>
       </c>
@@ -10706,18 +9802,10 @@
       <c r="J115" t="s">
         <v>826</v>
       </c>
-      <c r="K115" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="L115" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="M115" t="n">
-        <v>0.888</v>
-      </c>
-      <c r="N115" t="n">
-        <v>0.577</v>
-      </c>
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115"/>
       <c r="O115" t="n">
         <v>2.08</v>
       </c>
@@ -10759,18 +9847,10 @@
       <c r="J116" t="s">
         <v>827</v>
       </c>
-      <c r="K116" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="L116" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="M116" t="n">
-        <v>0.726</v>
-      </c>
-      <c r="N116" t="n">
-        <v>0.44799999999999995</v>
-      </c>
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116"/>
+      <c r="N116"/>
       <c r="O116" t="n">
         <v>1.442</v>
       </c>
@@ -10812,18 +9892,10 @@
       <c r="J117" t="s">
         <v>828</v>
       </c>
-      <c r="K117" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="L117" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="M117" t="n">
-        <v>1.7970000000000002</v>
-      </c>
-      <c r="N117" t="n">
-        <v>0.87</v>
-      </c>
+      <c r="K117"/>
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117"/>
       <c r="O117" t="n">
         <v>2.32</v>
       </c>
@@ -10865,18 +9937,10 @@
       <c r="J118" t="s">
         <v>829</v>
       </c>
-      <c r="K118" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="L118" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="M118" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="N118" t="n">
-        <v>1.008</v>
-      </c>
+      <c r="K118"/>
+      <c r="L118"/>
+      <c r="M118"/>
+      <c r="N118"/>
       <c r="O118" t="n">
         <v>2.98</v>
       </c>
@@ -10918,18 +9982,10 @@
       <c r="J119" t="s">
         <v>830</v>
       </c>
-      <c r="K119" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="L119" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="M119" t="n">
-        <v>1.218</v>
-      </c>
-      <c r="N119" t="n">
-        <v>0.48200000000000004</v>
-      </c>
+      <c r="K119"/>
+      <c r="L119"/>
+      <c r="M119"/>
+      <c r="N119"/>
       <c r="O119" t="n">
         <v>2.01</v>
       </c>
@@ -10971,18 +10027,10 @@
       <c r="J120" t="s">
         <v>831</v>
       </c>
-      <c r="K120" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L120" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="M120" t="n">
-        <v>1.145</v>
-      </c>
-      <c r="N120" t="n">
-        <v>1.268</v>
-      </c>
+      <c r="K120"/>
+      <c r="L120"/>
+      <c r="M120"/>
+      <c r="N120"/>
       <c r="O120" t="n">
         <v>1.9</v>
       </c>
@@ -11024,18 +10072,10 @@
       <c r="J121" t="s">
         <v>832</v>
       </c>
-      <c r="K121" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="L121" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="M121" t="n">
-        <v>1.047</v>
-      </c>
-      <c r="N121" t="n">
-        <v>1.155</v>
-      </c>
+      <c r="K121"/>
+      <c r="L121"/>
+      <c r="M121"/>
+      <c r="N121"/>
       <c r="O121" t="n">
         <v>2.93</v>
       </c>
@@ -11077,18 +10117,10 @@
       <c r="J122" t="s">
         <v>833</v>
       </c>
-      <c r="K122" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="L122" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="M122" t="n">
-        <v>1.6340000000000001</v>
-      </c>
-      <c r="N122" t="n">
-        <v>1.536</v>
-      </c>
+      <c r="K122"/>
+      <c r="L122"/>
+      <c r="M122"/>
+      <c r="N122"/>
       <c r="O122" t="n">
         <v>1.724</v>
       </c>
@@ -11130,18 +10162,10 @@
       <c r="J123" t="s">
         <v>834</v>
       </c>
-      <c r="K123" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="L123" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="M123" t="n">
-        <v>0.632</v>
-      </c>
-      <c r="N123" t="n">
-        <v>1.3539999999999999</v>
-      </c>
+      <c r="K123"/>
+      <c r="L123"/>
+      <c r="M123"/>
+      <c r="N123"/>
       <c r="O123" t="n">
         <v>3.65</v>
       </c>
@@ -11183,18 +10207,10 @@
       <c r="J124" t="s">
         <v>835</v>
       </c>
-      <c r="K124" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="L124" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="M124" t="n">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="N124" t="n">
-        <v>1.718</v>
-      </c>
+      <c r="K124"/>
+      <c r="L124"/>
+      <c r="M124"/>
+      <c r="N124"/>
       <c r="O124" t="n">
         <v>1.735</v>
       </c>
@@ -11236,18 +10252,10 @@
       <c r="J125" t="s">
         <v>836</v>
       </c>
-      <c r="K125" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="L125" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="M125" t="n">
-        <v>1.187</v>
-      </c>
-      <c r="N125" t="n">
-        <v>1.1500000000000001</v>
-      </c>
+      <c r="K125"/>
+      <c r="L125"/>
+      <c r="M125"/>
+      <c r="N125"/>
       <c r="O125" t="n">
         <v>3.89</v>
       </c>
@@ -11289,18 +10297,10 @@
       <c r="J126" t="s">
         <v>837</v>
       </c>
-      <c r="K126" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="L126" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="M126" t="n">
-        <v>0.901</v>
-      </c>
-      <c r="N126" t="n">
-        <v>0.966</v>
-      </c>
+      <c r="K126"/>
+      <c r="L126"/>
+      <c r="M126"/>
+      <c r="N126"/>
       <c r="O126" t="n">
         <v>2.77</v>
       </c>
@@ -11342,18 +10342,10 @@
       <c r="J127" t="s">
         <v>838</v>
       </c>
-      <c r="K127" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="L127" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="M127" t="n">
-        <v>0.729</v>
-      </c>
-      <c r="N127" t="n">
-        <v>1.127</v>
-      </c>
+      <c r="K127"/>
+      <c r="L127"/>
+      <c r="M127"/>
+      <c r="N127"/>
       <c r="O127" t="n">
         <v>1.602</v>
       </c>
@@ -11395,18 +10387,10 @@
       <c r="J128" t="s">
         <v>839</v>
       </c>
-      <c r="K128" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="L128" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="M128" t="n">
-        <v>0.733</v>
-      </c>
-      <c r="N128" t="n">
-        <v>2.012</v>
-      </c>
+      <c r="K128"/>
+      <c r="L128"/>
+      <c r="M128"/>
+      <c r="N128"/>
       <c r="O128" t="n">
         <v>3.23</v>
       </c>
@@ -11448,18 +10432,10 @@
       <c r="J129" t="s">
         <v>840</v>
       </c>
-      <c r="K129" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="L129" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="M129" t="n">
-        <v>1.638</v>
-      </c>
-      <c r="N129" t="n">
-        <v>2.499</v>
-      </c>
+      <c r="K129"/>
+      <c r="L129"/>
+      <c r="M129"/>
+      <c r="N129"/>
       <c r="O129" t="n">
         <v>2.52</v>
       </c>
@@ -11501,18 +10477,10 @@
       <c r="J130" t="s">
         <v>841</v>
       </c>
-      <c r="K130" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="L130" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="M130" t="n">
-        <v>1.839</v>
-      </c>
-      <c r="N130" t="n">
-        <v>1.079</v>
-      </c>
+      <c r="K130"/>
+      <c r="L130"/>
+      <c r="M130"/>
+      <c r="N130"/>
       <c r="O130" t="n">
         <v>2.48</v>
       </c>
@@ -11554,18 +10522,10 @@
       <c r="J131" t="s">
         <v>842</v>
       </c>
-      <c r="K131" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="L131" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="M131" t="n">
-        <v>1.135</v>
-      </c>
-      <c r="N131" t="n">
-        <v>1.318</v>
-      </c>
+      <c r="K131"/>
+      <c r="L131"/>
+      <c r="M131"/>
+      <c r="N131"/>
       <c r="O131" t="n">
         <v>3.83</v>
       </c>
@@ -11607,18 +10567,10 @@
       <c r="J132" t="s">
         <v>843</v>
       </c>
-      <c r="K132" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="L132" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="M132" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="N132" t="n">
-        <v>0.551</v>
-      </c>
+      <c r="K132"/>
+      <c r="L132"/>
+      <c r="M132"/>
+      <c r="N132"/>
       <c r="O132" t="n">
         <v>1.645</v>
       </c>
@@ -11660,18 +10612,10 @@
       <c r="J133" t="s">
         <v>844</v>
       </c>
-      <c r="K133" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="L133" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="M133" t="n">
-        <v>2.8529999999999998</v>
-      </c>
-      <c r="N133" t="n">
-        <v>0.387</v>
-      </c>
+      <c r="K133"/>
+      <c r="L133"/>
+      <c r="M133"/>
+      <c r="N133"/>
       <c r="O133" t="n">
         <v>1.296</v>
       </c>
@@ -11713,18 +10657,10 @@
       <c r="J134" t="s">
         <v>822</v>
       </c>
-      <c r="K134" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="L134" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="M134" t="n">
-        <v>1.296</v>
-      </c>
-      <c r="N134" t="n">
-        <v>0.729</v>
-      </c>
+      <c r="K134"/>
+      <c r="L134"/>
+      <c r="M134"/>
+      <c r="N134"/>
       <c r="O134" t="n">
         <v>1.408</v>
       </c>
@@ -11766,18 +10702,10 @@
       <c r="J135" t="s">
         <v>845</v>
       </c>
-      <c r="K135" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="L135" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="M135" t="n">
-        <v>1.137</v>
-      </c>
-      <c r="N135" t="n">
-        <v>1.391</v>
-      </c>
+      <c r="K135"/>
+      <c r="L135"/>
+      <c r="M135"/>
+      <c r="N135"/>
       <c r="O135" t="n">
         <v>4.37</v>
       </c>
@@ -11819,18 +10747,10 @@
       <c r="J136" t="s">
         <v>846</v>
       </c>
-      <c r="K136" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="L136" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="M136" t="n">
-        <v>0.524</v>
-      </c>
-      <c r="N136" t="n">
-        <v>0.818</v>
-      </c>
+      <c r="K136"/>
+      <c r="L136"/>
+      <c r="M136"/>
+      <c r="N136"/>
       <c r="O136" t="n">
         <v>1.386</v>
       </c>
@@ -11872,18 +10792,10 @@
       <c r="J137" t="s">
         <v>847</v>
       </c>
-      <c r="K137" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="L137" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="M137" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="N137" t="n">
-        <v>0.598</v>
-      </c>
+      <c r="K137"/>
+      <c r="L137"/>
+      <c r="M137"/>
+      <c r="N137"/>
       <c r="O137" t="n">
         <v>1.344</v>
       </c>
@@ -11925,18 +10837,10 @@
       <c r="J138" t="s">
         <v>848</v>
       </c>
-      <c r="K138" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="L138" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="M138" t="n">
-        <v>0.777</v>
-      </c>
-      <c r="N138" t="n">
-        <v>1.1360000000000001</v>
-      </c>
+      <c r="K138"/>
+      <c r="L138"/>
+      <c r="M138"/>
+      <c r="N138"/>
       <c r="O138" t="n">
         <v>3.45</v>
       </c>
@@ -11978,18 +10882,10 @@
       <c r="J139" t="s">
         <v>849</v>
       </c>
-      <c r="K139" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="L139" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="M139" t="n">
-        <v>0.989</v>
-      </c>
-      <c r="N139" t="n">
-        <v>0.984</v>
-      </c>
+      <c r="K139"/>
+      <c r="L139"/>
+      <c r="M139"/>
+      <c r="N139"/>
       <c r="O139" t="n">
         <v>2.0</v>
       </c>
@@ -12031,18 +10927,10 @@
       <c r="J140" t="s">
         <v>850</v>
       </c>
-      <c r="K140" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="L140" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="M140" t="n">
-        <v>0.825</v>
-      </c>
-      <c r="N140" t="n">
-        <v>1.67</v>
-      </c>
+      <c r="K140"/>
+      <c r="L140"/>
+      <c r="M140"/>
+      <c r="N140"/>
       <c r="O140" t="n">
         <v>2.11</v>
       </c>
@@ -12084,18 +10972,10 @@
       <c r="J141" t="s">
         <v>706</v>
       </c>
-      <c r="K141" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="L141" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="M141" t="n">
-        <v>0.8049999999999999</v>
-      </c>
-      <c r="N141" t="n">
-        <v>0.509</v>
-      </c>
+      <c r="K141"/>
+      <c r="L141"/>
+      <c r="M141"/>
+      <c r="N141"/>
       <c r="O141" t="n">
         <v>1.775</v>
       </c>
@@ -12137,18 +11017,10 @@
       <c r="J142" t="s">
         <v>511</v>
       </c>
-      <c r="K142" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="L142" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="M142" t="n">
-        <v>1.238</v>
-      </c>
-      <c r="N142" t="n">
-        <v>1.183</v>
-      </c>
+      <c r="K142"/>
+      <c r="L142"/>
+      <c r="M142"/>
+      <c r="N142"/>
       <c r="O142" t="n">
         <v>1.48</v>
       </c>
@@ -12190,18 +11062,10 @@
       <c r="J143" t="s">
         <v>851</v>
       </c>
-      <c r="K143" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="L143" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="M143" t="n">
-        <v>1.171</v>
-      </c>
-      <c r="N143" t="n">
-        <v>1.066</v>
-      </c>
+      <c r="K143"/>
+      <c r="L143"/>
+      <c r="M143"/>
+      <c r="N143"/>
       <c r="O143" t="n">
         <v>2.12</v>
       </c>
@@ -12243,18 +11107,10 @@
       <c r="J144" t="s">
         <v>852</v>
       </c>
-      <c r="K144" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="L144" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="M144" t="n">
-        <v>1.342</v>
-      </c>
-      <c r="N144" t="n">
-        <v>1.023</v>
-      </c>
+      <c r="K144"/>
+      <c r="L144"/>
+      <c r="M144"/>
+      <c r="N144"/>
       <c r="O144" t="n">
         <v>3.23</v>
       </c>
@@ -12296,18 +11152,10 @@
       <c r="J145" t="s">
         <v>853</v>
       </c>
-      <c r="K145" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="L145" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="M145" t="n">
-        <v>0.914</v>
-      </c>
-      <c r="N145" t="n">
-        <v>1.275</v>
-      </c>
+      <c r="K145"/>
+      <c r="L145"/>
+      <c r="M145"/>
+      <c r="N145"/>
       <c r="O145" t="n">
         <v>3.73</v>
       </c>
@@ -12349,18 +11197,10 @@
       <c r="J146" t="s">
         <v>854</v>
       </c>
-      <c r="K146" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="L146" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="M146" t="n">
-        <v>2.122</v>
-      </c>
-      <c r="N146" t="n">
-        <v>0.659</v>
-      </c>
+      <c r="K146"/>
+      <c r="L146"/>
+      <c r="M146"/>
+      <c r="N146"/>
       <c r="O146" t="n">
         <v>1.311</v>
       </c>
@@ -12402,18 +11242,10 @@
       <c r="J147" t="s">
         <v>855</v>
       </c>
-      <c r="K147" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="L147" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="M147" t="n">
-        <v>0.866</v>
-      </c>
-      <c r="N147" t="n">
-        <v>0.738</v>
-      </c>
+      <c r="K147"/>
+      <c r="L147"/>
+      <c r="M147"/>
+      <c r="N147"/>
       <c r="O147" t="n">
         <v>3.74</v>
       </c>
@@ -12455,18 +11287,10 @@
       <c r="J148" t="s">
         <v>856</v>
       </c>
-      <c r="K148" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="L148" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="M148" t="n">
-        <v>0.786</v>
-      </c>
-      <c r="N148" t="n">
-        <v>0.825</v>
-      </c>
+      <c r="K148"/>
+      <c r="L148"/>
+      <c r="M148"/>
+      <c r="N148"/>
       <c r="O148" t="n">
         <v>4.21</v>
       </c>
@@ -12508,18 +11332,10 @@
       <c r="J149" t="s">
         <v>857</v>
       </c>
-      <c r="K149" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="L149" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="M149" t="n">
-        <v>0.768</v>
-      </c>
-      <c r="N149" t="n">
-        <v>1.331</v>
-      </c>
+      <c r="K149"/>
+      <c r="L149"/>
+      <c r="M149"/>
+      <c r="N149"/>
       <c r="O149" t="n">
         <v>2.05</v>
       </c>
@@ -12561,18 +11377,10 @@
       <c r="J150" t="s">
         <v>858</v>
       </c>
-      <c r="K150" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="L150" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="M150" t="n">
-        <v>1.4200000000000002</v>
-      </c>
-      <c r="N150" t="n">
-        <v>0.5559999999999999</v>
-      </c>
+      <c r="K150"/>
+      <c r="L150"/>
+      <c r="M150"/>
+      <c r="N150"/>
       <c r="O150" t="n">
         <v>3.15</v>
       </c>
@@ -12614,18 +11422,10 @@
       <c r="J151" t="s">
         <v>859</v>
       </c>
-      <c r="K151" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="L151" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="M151" t="n">
-        <v>0.837</v>
-      </c>
-      <c r="N151" t="n">
-        <v>1.59</v>
-      </c>
+      <c r="K151"/>
+      <c r="L151"/>
+      <c r="M151"/>
+      <c r="N151"/>
       <c r="O151" t="n">
         <v>4.69</v>
       </c>
@@ -12667,18 +11467,10 @@
       <c r="J152" t="s">
         <v>860</v>
       </c>
-      <c r="K152" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="L152" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="M152" t="n">
-        <v>0.834</v>
-      </c>
-      <c r="N152" t="n">
-        <v>1.016</v>
-      </c>
+      <c r="K152"/>
+      <c r="L152"/>
+      <c r="M152"/>
+      <c r="N152"/>
       <c r="O152" t="n">
         <v>3.14</v>
       </c>
@@ -12720,18 +11512,10 @@
       <c r="J153" t="s">
         <v>861</v>
       </c>
-      <c r="K153" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="L153" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="M153" t="n">
-        <v>1.842</v>
-      </c>
-      <c r="N153" t="n">
-        <v>1.442</v>
-      </c>
+      <c r="K153"/>
+      <c r="L153"/>
+      <c r="M153"/>
+      <c r="N153"/>
       <c r="O153" t="n">
         <v>3.78</v>
       </c>
@@ -12773,18 +11557,10 @@
       <c r="J154" t="s">
         <v>862</v>
       </c>
-      <c r="K154" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="L154" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="M154" t="n">
-        <v>0.9309999999999999</v>
-      </c>
-      <c r="N154" t="n">
-        <v>0.391</v>
-      </c>
+      <c r="K154"/>
+      <c r="L154"/>
+      <c r="M154"/>
+      <c r="N154"/>
       <c r="O154" t="n">
         <v>1.44</v>
       </c>
@@ -12826,18 +11602,10 @@
       <c r="J155" t="s">
         <v>863</v>
       </c>
-      <c r="K155" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="L155" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="M155" t="n">
-        <v>0.835</v>
-      </c>
-      <c r="N155" t="n">
-        <v>1.372</v>
-      </c>
+      <c r="K155"/>
+      <c r="L155"/>
+      <c r="M155"/>
+      <c r="N155"/>
       <c r="O155" t="n">
         <v>2.53</v>
       </c>
@@ -12879,18 +11647,10 @@
       <c r="J156" t="s">
         <v>864</v>
       </c>
-      <c r="K156" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="L156" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="M156" t="n">
-        <v>1.9509999999999998</v>
-      </c>
-      <c r="N156" t="n">
-        <v>0.662</v>
-      </c>
+      <c r="K156"/>
+      <c r="L156"/>
+      <c r="M156"/>
+      <c r="N156"/>
       <c r="O156" t="n">
         <v>1.383</v>
       </c>
@@ -12932,18 +11692,10 @@
       <c r="J157" t="s">
         <v>865</v>
       </c>
-      <c r="K157" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="L157" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="M157" t="n">
-        <v>0.978</v>
-      </c>
-      <c r="N157" t="n">
-        <v>1.637</v>
-      </c>
+      <c r="K157"/>
+      <c r="L157"/>
+      <c r="M157"/>
+      <c r="N157"/>
       <c r="O157" t="n">
         <v>4.6</v>
       </c>
@@ -12985,18 +11737,10 @@
       <c r="J158" t="s">
         <v>866</v>
       </c>
-      <c r="K158" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="L158" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="M158" t="n">
-        <v>1.157</v>
-      </c>
-      <c r="N158" t="n">
-        <v>0.852</v>
-      </c>
+      <c r="K158"/>
+      <c r="L158"/>
+      <c r="M158"/>
+      <c r="N158"/>
       <c r="O158" t="n">
         <v>3.0</v>
       </c>
@@ -13038,18 +11782,10 @@
       <c r="J159" t="s">
         <v>867</v>
       </c>
-      <c r="K159" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="L159" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="M159" t="n">
-        <v>1.0130000000000001</v>
-      </c>
-      <c r="N159" t="n">
-        <v>1.7870000000000001</v>
-      </c>
+      <c r="K159"/>
+      <c r="L159"/>
+      <c r="M159"/>
+      <c r="N159"/>
       <c r="O159" t="n">
         <v>5.2</v>
       </c>
@@ -13091,18 +11827,10 @@
       <c r="J160" t="s">
         <v>600</v>
       </c>
-      <c r="K160" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="L160" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="M160" t="n">
-        <v>1.358</v>
-      </c>
-      <c r="N160" t="n">
-        <v>0.54</v>
-      </c>
+      <c r="K160"/>
+      <c r="L160"/>
+      <c r="M160"/>
+      <c r="N160"/>
       <c r="O160" t="n">
         <v>1.462</v>
       </c>
@@ -13144,18 +11872,10 @@
       <c r="J161" t="s">
         <v>868</v>
       </c>
-      <c r="K161" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="L161" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="M161" t="n">
-        <v>1.254</v>
-      </c>
-      <c r="N161" t="n">
-        <v>1.061</v>
-      </c>
+      <c r="K161"/>
+      <c r="L161"/>
+      <c r="M161"/>
+      <c r="N161"/>
       <c r="O161" t="n">
         <v>1.442</v>
       </c>
@@ -13197,18 +11917,10 @@
       <c r="J162" t="s">
         <v>869</v>
       </c>
-      <c r="K162" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="L162" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="M162" t="n">
-        <v>1.3519999999999999</v>
-      </c>
-      <c r="N162" t="n">
-        <v>0.704</v>
-      </c>
+      <c r="K162"/>
+      <c r="L162"/>
+      <c r="M162"/>
+      <c r="N162"/>
       <c r="O162" t="n">
         <v>1.961</v>
       </c>
@@ -13250,18 +11962,10 @@
       <c r="J163" t="s">
         <v>870</v>
       </c>
-      <c r="K163" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="L163" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="M163" t="n">
-        <v>1.222</v>
-      </c>
-      <c r="N163" t="n">
-        <v>1.096</v>
-      </c>
+      <c r="K163"/>
+      <c r="L163"/>
+      <c r="M163"/>
+      <c r="N163"/>
       <c r="O163" t="n">
         <v>2.13</v>
       </c>
@@ -13303,18 +12007,10 @@
       <c r="J164" t="s">
         <v>871</v>
       </c>
-      <c r="K164" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="L164" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="M164" t="n">
-        <v>1.771</v>
-      </c>
-      <c r="N164" t="n">
-        <v>0.622</v>
-      </c>
+      <c r="K164"/>
+      <c r="L164"/>
+      <c r="M164"/>
+      <c r="N164"/>
       <c r="O164" t="n">
         <v>1.298</v>
       </c>
@@ -13356,18 +12052,10 @@
       <c r="J165" t="s">
         <v>872</v>
       </c>
-      <c r="K165" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="L165" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="M165" t="n">
-        <v>2.088</v>
-      </c>
-      <c r="N165" t="n">
-        <v>1.479</v>
-      </c>
+      <c r="K165"/>
+      <c r="L165"/>
+      <c r="M165"/>
+      <c r="N165"/>
       <c r="O165" t="n">
         <v>2.57</v>
       </c>
@@ -13409,18 +12097,10 @@
       <c r="J166" t="s">
         <v>873</v>
       </c>
-      <c r="K166" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="L166" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="M166" t="n">
-        <v>0.9329999999999999</v>
-      </c>
-      <c r="N166" t="n">
-        <v>1.171</v>
-      </c>
+      <c r="K166"/>
+      <c r="L166"/>
+      <c r="M166"/>
+      <c r="N166"/>
       <c r="O166" t="n">
         <v>2.94</v>
       </c>
@@ -13462,18 +12142,10 @@
       <c r="J167" t="s">
         <v>264</v>
       </c>
-      <c r="K167" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="L167" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="M167" t="n">
-        <v>1.077</v>
-      </c>
-      <c r="N167" t="n">
-        <v>1.351</v>
-      </c>
+      <c r="K167"/>
+      <c r="L167"/>
+      <c r="M167"/>
+      <c r="N167"/>
       <c r="O167" t="n">
         <v>2.73</v>
       </c>
@@ -13515,18 +12187,10 @@
       <c r="J168" t="s">
         <v>874</v>
       </c>
-      <c r="K168" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="L168" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="M168" t="n">
-        <v>0.954</v>
-      </c>
-      <c r="N168" t="n">
-        <v>0.45200000000000007</v>
-      </c>
+      <c r="K168"/>
+      <c r="L168"/>
+      <c r="M168"/>
+      <c r="N168"/>
       <c r="O168" t="n">
         <v>1.9</v>
       </c>
@@ -13568,18 +12232,10 @@
       <c r="J169" t="s">
         <v>875</v>
       </c>
-      <c r="K169" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="L169" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="M169" t="n">
-        <v>0.6799999999999999</v>
-      </c>
-      <c r="N169" t="n">
-        <v>1.185</v>
-      </c>
+      <c r="K169"/>
+      <c r="L169"/>
+      <c r="M169"/>
+      <c r="N169"/>
       <c r="O169" t="n">
         <v>1.265</v>
       </c>
@@ -13621,18 +12277,10 @@
       <c r="J170" t="s">
         <v>876</v>
       </c>
-      <c r="K170" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="L170" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="M170" t="n">
-        <v>1.668</v>
-      </c>
-      <c r="N170" t="n">
-        <v>1.73</v>
-      </c>
+      <c r="K170"/>
+      <c r="L170"/>
+      <c r="M170"/>
+      <c r="N170"/>
       <c r="O170" t="n">
         <v>2.28</v>
       </c>
@@ -13674,18 +12322,10 @@
       <c r="J171" t="s">
         <v>877</v>
       </c>
-      <c r="K171" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L171" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="M171" t="n">
-        <v>1.637</v>
-      </c>
-      <c r="N171" t="n">
-        <v>0.605</v>
-      </c>
+      <c r="K171"/>
+      <c r="L171"/>
+      <c r="M171"/>
+      <c r="N171"/>
       <c r="O171" t="n">
         <v>2.13</v>
       </c>
@@ -13727,18 +12367,10 @@
       <c r="J172" t="s">
         <v>878</v>
       </c>
-      <c r="K172" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="L172" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="M172" t="n">
-        <v>0.783</v>
-      </c>
-      <c r="N172" t="n">
-        <v>2.045</v>
-      </c>
+      <c r="K172"/>
+      <c r="L172"/>
+      <c r="M172"/>
+      <c r="N172"/>
       <c r="O172" t="n">
         <v>2.3</v>
       </c>
@@ -13780,18 +12412,10 @@
       <c r="J173" t="s">
         <v>879</v>
       </c>
-      <c r="K173" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="L173" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="M173" t="n">
-        <v>1.209</v>
-      </c>
-      <c r="N173" t="n">
-        <v>1.013</v>
-      </c>
+      <c r="K173"/>
+      <c r="L173"/>
+      <c r="M173"/>
+      <c r="N173"/>
       <c r="O173" t="n">
         <v>1.492</v>
       </c>
@@ -13833,18 +12457,10 @@
       <c r="J174" t="s">
         <v>880</v>
       </c>
-      <c r="K174" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="L174" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="M174" t="n">
-        <v>0.5640000000000001</v>
-      </c>
-      <c r="N174" t="n">
-        <v>0.752</v>
-      </c>
+      <c r="K174"/>
+      <c r="L174"/>
+      <c r="M174"/>
+      <c r="N174"/>
       <c r="O174" t="n">
         <v>2.97</v>
       </c>
@@ -13886,18 +12502,10 @@
       <c r="J175" t="s">
         <v>881</v>
       </c>
-      <c r="K175" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="L175" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="M175" t="n">
-        <v>0.905</v>
-      </c>
-      <c r="N175" t="n">
-        <v>0.7040000000000001</v>
-      </c>
+      <c r="K175"/>
+      <c r="L175"/>
+      <c r="M175"/>
+      <c r="N175"/>
       <c r="O175" t="n">
         <v>1.99</v>
       </c>
@@ -13939,18 +12547,10 @@
       <c r="J176" t="s">
         <v>882</v>
       </c>
-      <c r="K176" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="L176" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="M176" t="n">
-        <v>1.433</v>
-      </c>
-      <c r="N176" t="n">
-        <v>1.458</v>
-      </c>
+      <c r="K176"/>
+      <c r="L176"/>
+      <c r="M176"/>
+      <c r="N176"/>
       <c r="O176" t="n">
         <v>1.909</v>
       </c>
@@ -13992,18 +12592,10 @@
       <c r="J177" t="s">
         <v>883</v>
       </c>
-      <c r="K177" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="L177" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="M177" t="n">
-        <v>0.899</v>
-      </c>
-      <c r="N177" t="n">
-        <v>1.346</v>
-      </c>
+      <c r="K177"/>
+      <c r="L177"/>
+      <c r="M177"/>
+      <c r="N177"/>
       <c r="O177" t="n">
         <v>1.793</v>
       </c>
@@ -14045,18 +12637,10 @@
       <c r="J178" t="s">
         <v>884</v>
       </c>
-      <c r="K178" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="L178" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="M178" t="n">
-        <v>0.706</v>
-      </c>
-      <c r="N178" t="n">
-        <v>1.186</v>
-      </c>
+      <c r="K178"/>
+      <c r="L178"/>
+      <c r="M178"/>
+      <c r="N178"/>
       <c r="O178" t="n">
         <v>2.73</v>
       </c>
@@ -14098,18 +12682,10 @@
       <c r="J179" t="s">
         <v>885</v>
       </c>
-      <c r="K179" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="L179" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="M179" t="n">
-        <v>0.968</v>
-      </c>
-      <c r="N179" t="n">
-        <v>1.3780000000000001</v>
-      </c>
+      <c r="K179"/>
+      <c r="L179"/>
+      <c r="M179"/>
+      <c r="N179"/>
       <c r="O179" t="n">
         <v>3.28</v>
       </c>
@@ -14151,18 +12727,10 @@
       <c r="J180" t="s">
         <v>886</v>
       </c>
-      <c r="K180" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="L180" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="M180" t="n">
-        <v>0.513</v>
-      </c>
-      <c r="N180" t="n">
-        <v>1.796</v>
-      </c>
+      <c r="K180"/>
+      <c r="L180"/>
+      <c r="M180"/>
+      <c r="N180"/>
       <c r="O180" t="n">
         <v>2.59</v>
       </c>
@@ -14204,18 +12772,10 @@
       <c r="J181" t="s">
         <v>887</v>
       </c>
-      <c r="K181" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="L181" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="M181" t="n">
-        <v>0.47600000000000003</v>
-      </c>
-      <c r="N181" t="n">
-        <v>1.308</v>
-      </c>
+      <c r="K181"/>
+      <c r="L181"/>
+      <c r="M181"/>
+      <c r="N181"/>
       <c r="O181" t="n">
         <v>4.1</v>
       </c>
@@ -14257,18 +12817,10 @@
       <c r="J182" t="s">
         <v>888</v>
       </c>
-      <c r="K182" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="L182" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="M182" t="n">
-        <v>1.173</v>
-      </c>
-      <c r="N182" t="n">
-        <v>2.0180000000000002</v>
-      </c>
+      <c r="K182"/>
+      <c r="L182"/>
+      <c r="M182"/>
+      <c r="N182"/>
       <c r="O182" t="n">
         <v>3.45</v>
       </c>
@@ -14310,18 +12862,10 @@
       <c r="J183" t="s">
         <v>889</v>
       </c>
-      <c r="K183" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="L183" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="M183" t="n">
-        <v>0.828</v>
-      </c>
-      <c r="N183" t="n">
-        <v>0.794</v>
-      </c>
+      <c r="K183"/>
+      <c r="L183"/>
+      <c r="M183"/>
+      <c r="N183"/>
       <c r="O183" t="n">
         <v>2.19</v>
       </c>
@@ -14363,18 +12907,10 @@
       <c r="J184" t="s">
         <v>608</v>
       </c>
-      <c r="K184" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="L184" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="M184" t="n">
-        <v>1.759</v>
-      </c>
-      <c r="N184" t="n">
-        <v>0.66</v>
-      </c>
+      <c r="K184"/>
+      <c r="L184"/>
+      <c r="M184"/>
+      <c r="N184"/>
       <c r="O184" t="n">
         <v>1.854</v>
       </c>
@@ -14416,18 +12952,10 @@
       <c r="J185" t="s">
         <v>257</v>
       </c>
-      <c r="K185" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="L185" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="M185" t="n">
-        <v>2.076</v>
-      </c>
-      <c r="N185" t="n">
-        <v>0.513</v>
-      </c>
+      <c r="K185"/>
+      <c r="L185"/>
+      <c r="M185"/>
+      <c r="N185"/>
       <c r="O185" t="n">
         <v>1.8</v>
       </c>
@@ -14469,18 +12997,10 @@
       <c r="J186" t="s">
         <v>890</v>
       </c>
-      <c r="K186" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="L186" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="M186" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="N186" t="n">
-        <v>0.463</v>
-      </c>
+      <c r="K186"/>
+      <c r="L186"/>
+      <c r="M186"/>
+      <c r="N186"/>
       <c r="O186" t="n">
         <v>1.505</v>
       </c>
@@ -14522,18 +13042,10 @@
       <c r="J187" t="s">
         <v>891</v>
       </c>
-      <c r="K187" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="L187" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="M187" t="n">
-        <v>1.423</v>
-      </c>
-      <c r="N187" t="n">
-        <v>0.676</v>
-      </c>
+      <c r="K187"/>
+      <c r="L187"/>
+      <c r="M187"/>
+      <c r="N187"/>
       <c r="O187" t="n">
         <v>1.709</v>
       </c>
@@ -14575,18 +13087,10 @@
       <c r="J188" t="s">
         <v>892</v>
       </c>
-      <c r="K188" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="L188" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="M188" t="n">
-        <v>1.588</v>
-      </c>
-      <c r="N188" t="n">
-        <v>0.5840000000000001</v>
-      </c>
+      <c r="K188"/>
+      <c r="L188"/>
+      <c r="M188"/>
+      <c r="N188"/>
       <c r="O188" t="n">
         <v>1.606</v>
       </c>
@@ -14628,18 +13132,10 @@
       <c r="J189" t="s">
         <v>893</v>
       </c>
-      <c r="K189" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="L189" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="M189" t="n">
-        <v>1.367</v>
-      </c>
-      <c r="N189" t="n">
-        <v>0.552</v>
-      </c>
+      <c r="K189"/>
+      <c r="L189"/>
+      <c r="M189"/>
+      <c r="N189"/>
       <c r="O189" t="n">
         <v>1.581</v>
       </c>
@@ -14681,18 +13177,10 @@
       <c r="J190" t="s">
         <v>894</v>
       </c>
-      <c r="K190" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="L190" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="M190" t="n">
-        <v>1.242</v>
-      </c>
-      <c r="N190" t="n">
-        <v>0.874</v>
-      </c>
+      <c r="K190"/>
+      <c r="L190"/>
+      <c r="M190"/>
+      <c r="N190"/>
       <c r="O190" t="n">
         <v>1.877</v>
       </c>
@@ -14734,18 +13222,10 @@
       <c r="J191" t="s">
         <v>895</v>
       </c>
-      <c r="K191" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="L191" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="M191" t="n">
-        <v>0.789</v>
-      </c>
-      <c r="N191" t="n">
-        <v>1.082</v>
-      </c>
+      <c r="K191"/>
+      <c r="L191"/>
+      <c r="M191"/>
+      <c r="N191"/>
       <c r="O191" t="n">
         <v>2.79</v>
       </c>
@@ -14787,18 +13267,10 @@
       <c r="J192" t="s">
         <v>896</v>
       </c>
-      <c r="K192" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="L192" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="M192" t="n">
-        <v>1.061</v>
-      </c>
-      <c r="N192" t="n">
-        <v>0.858</v>
-      </c>
+      <c r="K192"/>
+      <c r="L192"/>
+      <c r="M192"/>
+      <c r="N192"/>
       <c r="O192" t="n">
         <v>1.884</v>
       </c>
@@ -14840,18 +13312,10 @@
       <c r="J193" t="s">
         <v>897</v>
       </c>
-      <c r="K193" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="L193" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="M193" t="n">
-        <v>1.481</v>
-      </c>
-      <c r="N193" t="n">
-        <v>0.518</v>
-      </c>
+      <c r="K193"/>
+      <c r="L193"/>
+      <c r="M193"/>
+      <c r="N193"/>
       <c r="O193" t="n">
         <v>1.546</v>
       </c>
@@ -14893,18 +13357,10 @@
       <c r="J194" t="s">
         <v>898</v>
       </c>
-      <c r="K194" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="L194" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="M194" t="n">
-        <v>1.533</v>
-      </c>
-      <c r="N194" t="n">
-        <v>1.461</v>
-      </c>
+      <c r="K194"/>
+      <c r="L194"/>
+      <c r="M194"/>
+      <c r="N194"/>
       <c r="O194" t="n">
         <v>2.75</v>
       </c>
@@ -14946,18 +13402,10 @@
       <c r="J195" t="s">
         <v>241</v>
       </c>
-      <c r="K195" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="L195" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="M195" t="n">
-        <v>1.351</v>
-      </c>
-      <c r="N195" t="n">
-        <v>1.488</v>
-      </c>
+      <c r="K195"/>
+      <c r="L195"/>
+      <c r="M195"/>
+      <c r="N195"/>
       <c r="O195" t="n">
         <v>2.82</v>
       </c>
@@ -14999,18 +13447,10 @@
       <c r="J196" t="s">
         <v>241</v>
       </c>
-      <c r="K196" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="L196" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="M196" t="n">
-        <v>1.351</v>
-      </c>
-      <c r="N196" t="n">
-        <v>1.488</v>
-      </c>
+      <c r="K196"/>
+      <c r="L196"/>
+      <c r="M196"/>
+      <c r="N196"/>
       <c r="O196" t="n">
         <v>2.29</v>
       </c>
@@ -15052,18 +13492,10 @@
       <c r="J197" t="s">
         <v>899</v>
       </c>
-      <c r="K197" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L197" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="M197" t="n">
-        <v>0.69</v>
-      </c>
-      <c r="N197" t="n">
-        <v>0.9460000000000001</v>
-      </c>
+      <c r="K197"/>
+      <c r="L197"/>
+      <c r="M197"/>
+      <c r="N197"/>
       <c r="O197" t="n">
         <v>1.378</v>
       </c>
@@ -15105,18 +13537,10 @@
       <c r="J198" t="s">
         <v>900</v>
       </c>
-      <c r="K198" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="L198" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="M198" t="n">
-        <v>1.079</v>
-      </c>
-      <c r="N198" t="n">
-        <v>0.6789999999999999</v>
-      </c>
+      <c r="K198"/>
+      <c r="L198"/>
+      <c r="M198"/>
+      <c r="N198"/>
       <c r="O198" t="n">
         <v>5.69</v>
       </c>
@@ -15158,18 +13582,10 @@
       <c r="J199" t="s">
         <v>829</v>
       </c>
-      <c r="K199" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="L199" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="M199" t="n">
-        <v>1.678</v>
-      </c>
-      <c r="N199" t="n">
-        <v>1.0050000000000001</v>
-      </c>
+      <c r="K199"/>
+      <c r="L199"/>
+      <c r="M199"/>
+      <c r="N199"/>
       <c r="O199" t="n">
         <v>1.869</v>
       </c>
@@ -15211,18 +13627,10 @@
       <c r="J200" t="s">
         <v>901</v>
       </c>
-      <c r="K200" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="L200" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="M200" t="n">
-        <v>2.472</v>
-      </c>
-      <c r="N200" t="n">
-        <v>0.711</v>
-      </c>
+      <c r="K200"/>
+      <c r="L200"/>
+      <c r="M200"/>
+      <c r="N200"/>
       <c r="O200" t="n">
         <v>1.367</v>
       </c>
@@ -15264,18 +13672,10 @@
       <c r="J201" t="s">
         <v>902</v>
       </c>
-      <c r="K201" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="L201" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="M201" t="n">
-        <v>2.135</v>
-      </c>
-      <c r="N201" t="n">
-        <v>1.212</v>
-      </c>
+      <c r="K201"/>
+      <c r="L201"/>
+      <c r="M201"/>
+      <c r="N201"/>
       <c r="O201" t="n">
         <v>2.96</v>
       </c>
@@ -15317,18 +13717,10 @@
       <c r="J202" t="s">
         <v>903</v>
       </c>
-      <c r="K202" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="L202" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="M202" t="n">
-        <v>0.36699999999999994</v>
-      </c>
-      <c r="N202" t="n">
-        <v>1.2149999999999999</v>
-      </c>
+      <c r="K202"/>
+      <c r="L202"/>
+      <c r="M202"/>
+      <c r="N202"/>
       <c r="O202" t="n">
         <v>3.08</v>
       </c>
@@ -15370,18 +13762,10 @@
       <c r="J203" t="s">
         <v>904</v>
       </c>
-      <c r="K203" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="L203" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="M203" t="n">
-        <v>0.902</v>
-      </c>
-      <c r="N203" t="n">
-        <v>1.204</v>
-      </c>
+      <c r="K203"/>
+      <c r="L203"/>
+      <c r="M203"/>
+      <c r="N203"/>
       <c r="O203" t="n">
         <v>3.56</v>
       </c>
@@ -15423,18 +13807,10 @@
       <c r="J204" t="s">
         <v>905</v>
       </c>
-      <c r="K204" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="L204" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="M204" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N204" t="n">
-        <v>0.762</v>
-      </c>
+      <c r="K204"/>
+      <c r="L204"/>
+      <c r="M204"/>
+      <c r="N204"/>
       <c r="O204" t="n">
         <v>1.546</v>
       </c>
@@ -15476,18 +13852,10 @@
       <c r="J205" t="s">
         <v>906</v>
       </c>
-      <c r="K205" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="L205" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="M205" t="n">
-        <v>1.652</v>
-      </c>
-      <c r="N205" t="n">
-        <v>1.593</v>
-      </c>
+      <c r="K205"/>
+      <c r="L205"/>
+      <c r="M205"/>
+      <c r="N205"/>
       <c r="O205" t="n">
         <v>2.88</v>
       </c>
@@ -15529,18 +13897,10 @@
       <c r="J206" t="s">
         <v>260</v>
       </c>
-      <c r="K206" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="L206" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="M206" t="n">
-        <v>1.448</v>
-      </c>
-      <c r="N206" t="n">
-        <v>1.679</v>
-      </c>
+      <c r="K206"/>
+      <c r="L206"/>
+      <c r="M206"/>
+      <c r="N206"/>
       <c r="O206" t="n">
         <v>1.917</v>
       </c>
@@ -15582,18 +13942,10 @@
       <c r="J207" t="s">
         <v>907</v>
       </c>
-      <c r="K207" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="L207" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="M207" t="n">
-        <v>1.341</v>
-      </c>
-      <c r="N207" t="n">
-        <v>0.482</v>
-      </c>
+      <c r="K207"/>
+      <c r="L207"/>
+      <c r="M207"/>
+      <c r="N207"/>
       <c r="O207" t="n">
         <v>1.444</v>
       </c>
@@ -15635,18 +13987,10 @@
       <c r="J208" t="s">
         <v>908</v>
       </c>
-      <c r="K208" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="L208" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="M208" t="n">
-        <v>0.683</v>
-      </c>
-      <c r="N208" t="n">
-        <v>0.8899999999999999</v>
-      </c>
+      <c r="K208"/>
+      <c r="L208"/>
+      <c r="M208"/>
+      <c r="N208"/>
       <c r="O208" t="n">
         <v>2.13</v>
       </c>
@@ -15688,18 +14032,10 @@
       <c r="J209" t="s">
         <v>909</v>
       </c>
-      <c r="K209" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="L209" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="M209" t="n">
-        <v>1.213</v>
-      </c>
-      <c r="N209" t="n">
-        <v>1.283</v>
-      </c>
+      <c r="K209"/>
+      <c r="L209"/>
+      <c r="M209"/>
+      <c r="N209"/>
       <c r="O209" t="n">
         <v>1.833</v>
       </c>
@@ -15741,18 +14077,10 @@
       <c r="J210" t="s">
         <v>910</v>
       </c>
-      <c r="K210" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="L210" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="M210" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="N210" t="n">
-        <v>0.837</v>
-      </c>
+      <c r="K210"/>
+      <c r="L210"/>
+      <c r="M210"/>
+      <c r="N210"/>
       <c r="O210" t="n">
         <v>1.354</v>
       </c>
@@ -15794,18 +14122,10 @@
       <c r="J211" t="s">
         <v>911</v>
       </c>
-      <c r="K211" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="L211" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="M211" t="n">
-        <v>0.673</v>
-      </c>
-      <c r="N211" t="n">
-        <v>1.494</v>
-      </c>
+      <c r="K211"/>
+      <c r="L211"/>
+      <c r="M211"/>
+      <c r="N211"/>
       <c r="O211" t="n">
         <v>1.341</v>
       </c>
@@ -15847,18 +14167,10 @@
       <c r="J212" t="s">
         <v>912</v>
       </c>
-      <c r="K212" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="L212" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="M212" t="n">
-        <v>0.408</v>
-      </c>
-      <c r="N212" t="n">
-        <v>1.585</v>
-      </c>
+      <c r="K212"/>
+      <c r="L212"/>
+      <c r="M212"/>
+      <c r="N212"/>
       <c r="O212" t="n">
         <v>2.47</v>
       </c>
@@ -15900,18 +14212,10 @@
       <c r="J213" t="s">
         <v>913</v>
       </c>
-      <c r="K213" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="L213" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="M213" t="n">
-        <v>1.343</v>
-      </c>
-      <c r="N213" t="n">
-        <v>1.522</v>
-      </c>
+      <c r="K213"/>
+      <c r="L213"/>
+      <c r="M213"/>
+      <c r="N213"/>
       <c r="O213" t="n">
         <v>3.57</v>
       </c>
@@ -15953,18 +14257,10 @@
       <c r="J214" t="s">
         <v>856</v>
       </c>
-      <c r="K214" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="L214" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="M214" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="N214" t="n">
-        <v>0.8370000000000001</v>
-      </c>
+      <c r="K214"/>
+      <c r="L214"/>
+      <c r="M214"/>
+      <c r="N214"/>
       <c r="O214" t="n">
         <v>3.71</v>
       </c>
@@ -16006,18 +14302,10 @@
       <c r="J215" t="s">
         <v>460</v>
       </c>
-      <c r="K215" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="L215" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="M215" t="n">
-        <v>0.896</v>
-      </c>
-      <c r="N215" t="n">
-        <v>1.222</v>
-      </c>
+      <c r="K215"/>
+      <c r="L215"/>
+      <c r="M215"/>
+      <c r="N215"/>
       <c r="O215" t="n">
         <v>2.13</v>
       </c>
@@ -16059,18 +14347,10 @@
       <c r="J216" t="s">
         <v>914</v>
       </c>
-      <c r="K216" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="L216" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="M216" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="N216" t="n">
-        <v>1.034</v>
-      </c>
+      <c r="K216"/>
+      <c r="L216"/>
+      <c r="M216"/>
+      <c r="N216"/>
       <c r="O216" t="n">
         <v>1.543</v>
       </c>
@@ -16112,18 +14392,10 @@
       <c r="J217" t="s">
         <v>915</v>
       </c>
-      <c r="K217" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L217" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="M217" t="n">
-        <v>1.234</v>
-      </c>
-      <c r="N217" t="n">
-        <v>0.563</v>
-      </c>
+      <c r="K217"/>
+      <c r="L217"/>
+      <c r="M217"/>
+      <c r="N217"/>
       <c r="O217" t="n">
         <v>1.699</v>
       </c>
@@ -16165,18 +14437,10 @@
       <c r="J218" t="s">
         <v>916</v>
       </c>
-      <c r="K218" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="L218" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="M218" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="N218" t="n">
-        <v>1.341</v>
-      </c>
+      <c r="K218"/>
+      <c r="L218"/>
+      <c r="M218"/>
+      <c r="N218"/>
       <c r="O218" t="n">
         <v>4.38</v>
       </c>
@@ -16218,18 +14482,10 @@
       <c r="J219" t="s">
         <v>917</v>
       </c>
-      <c r="K219" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="L219" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="M219" t="n">
-        <v>1.042</v>
-      </c>
-      <c r="N219" t="n">
-        <v>1.006</v>
-      </c>
+      <c r="K219"/>
+      <c r="L219"/>
+      <c r="M219"/>
+      <c r="N219"/>
       <c r="O219" t="n">
         <v>2.41</v>
       </c>
@@ -16271,18 +14527,10 @@
       <c r="J220" t="s">
         <v>917</v>
       </c>
-      <c r="K220" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="L220" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="M220" t="n">
-        <v>1.042</v>
-      </c>
-      <c r="N220" t="n">
-        <v>1.006</v>
-      </c>
+      <c r="K220"/>
+      <c r="L220"/>
+      <c r="M220"/>
+      <c r="N220"/>
       <c r="O220" t="n">
         <v>2.65</v>
       </c>
@@ -16324,18 +14572,10 @@
       <c r="J221" t="s">
         <v>918</v>
       </c>
-      <c r="K221" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="L221" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="M221" t="n">
-        <v>2.218</v>
-      </c>
-      <c r="N221" t="n">
-        <v>0.428</v>
-      </c>
+      <c r="K221"/>
+      <c r="L221"/>
+      <c r="M221"/>
+      <c r="N221"/>
       <c r="O221" t="n">
         <v>2.22</v>
       </c>
@@ -16377,18 +14617,10 @@
       <c r="J222" t="s">
         <v>919</v>
       </c>
-      <c r="K222" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="L222" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="M222" t="n">
-        <v>1.008</v>
-      </c>
-      <c r="N222" t="n">
-        <v>0.655</v>
-      </c>
+      <c r="K222"/>
+      <c r="L222"/>
+      <c r="M222"/>
+      <c r="N222"/>
       <c r="O222" t="n">
         <v>2.0</v>
       </c>
@@ -16430,18 +14662,10 @@
       <c r="J223" t="s">
         <v>920</v>
       </c>
-      <c r="K223" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="L223" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="M223" t="n">
-        <v>0.933</v>
-      </c>
-      <c r="N223" t="n">
-        <v>1.502</v>
-      </c>
+      <c r="K223"/>
+      <c r="L223"/>
+      <c r="M223"/>
+      <c r="N223"/>
       <c r="O223" t="n">
         <v>3.62</v>
       </c>
@@ -16483,18 +14707,10 @@
       <c r="J224" t="s">
         <v>921</v>
       </c>
-      <c r="K224" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="L224" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="M224" t="n">
-        <v>1.443</v>
-      </c>
-      <c r="N224" t="n">
-        <v>1.0050000000000001</v>
-      </c>
+      <c r="K224"/>
+      <c r="L224"/>
+      <c r="M224"/>
+      <c r="N224"/>
       <c r="O224" t="n">
         <v>1.307</v>
       </c>
@@ -16536,18 +14752,10 @@
       <c r="J225" t="s">
         <v>922</v>
       </c>
-      <c r="K225" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="L225" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="M225" t="n">
-        <v>0.988</v>
-      </c>
-      <c r="N225" t="n">
-        <v>0.769</v>
-      </c>
+      <c r="K225"/>
+      <c r="L225"/>
+      <c r="M225"/>
+      <c r="N225"/>
       <c r="O225" t="n">
         <v>2.3</v>
       </c>
@@ -16589,18 +14797,10 @@
       <c r="J226" t="s">
         <v>923</v>
       </c>
-      <c r="K226" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="L226" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="M226" t="n">
-        <v>0.706</v>
-      </c>
-      <c r="N226" t="n">
-        <v>0.748</v>
-      </c>
+      <c r="K226"/>
+      <c r="L226"/>
+      <c r="M226"/>
+      <c r="N226"/>
       <c r="O226" t="n">
         <v>1.35</v>
       </c>
@@ -16642,18 +14842,10 @@
       <c r="J227" t="s">
         <v>924</v>
       </c>
-      <c r="K227" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="L227" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="M227" t="n">
-        <v>0.862</v>
-      </c>
-      <c r="N227" t="n">
-        <v>1.058</v>
-      </c>
+      <c r="K227"/>
+      <c r="L227"/>
+      <c r="M227"/>
+      <c r="N227"/>
       <c r="O227" t="n">
         <v>1.671</v>
       </c>
@@ -16695,18 +14887,10 @@
       <c r="J228" t="s">
         <v>925</v>
       </c>
-      <c r="K228" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="L228" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="M228" t="n">
-        <v>1.315</v>
-      </c>
-      <c r="N228" t="n">
-        <v>1.703</v>
-      </c>
+      <c r="K228"/>
+      <c r="L228"/>
+      <c r="M228"/>
+      <c r="N228"/>
       <c r="O228" t="n">
         <v>2.34</v>
       </c>
@@ -16748,18 +14932,10 @@
       <c r="J229" t="s">
         <v>926</v>
       </c>
-      <c r="K229" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="L229" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="M229" t="n">
-        <v>1.607</v>
-      </c>
-      <c r="N229" t="n">
-        <v>0.6399999999999999</v>
-      </c>
+      <c r="K229"/>
+      <c r="L229"/>
+      <c r="M229"/>
+      <c r="N229"/>
       <c r="O229" t="n">
         <v>1.826</v>
       </c>
@@ -16801,18 +14977,10 @@
       <c r="J230" t="s">
         <v>927</v>
       </c>
-      <c r="K230" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="L230" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="M230" t="n">
-        <v>1.861</v>
-      </c>
-      <c r="N230" t="n">
-        <v>0.511</v>
-      </c>
+      <c r="K230"/>
+      <c r="L230"/>
+      <c r="M230"/>
+      <c r="N230"/>
       <c r="O230" t="n">
         <v>1.51</v>
       </c>
@@ -16854,18 +15022,10 @@
       <c r="J231" t="s">
         <v>927</v>
       </c>
-      <c r="K231" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="L231" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="M231" t="n">
-        <v>1.861</v>
-      </c>
-      <c r="N231" t="n">
-        <v>0.511</v>
-      </c>
+      <c r="K231"/>
+      <c r="L231"/>
+      <c r="M231"/>
+      <c r="N231"/>
       <c r="O231" t="n">
         <v>1.568</v>
       </c>
@@ -16907,18 +15067,10 @@
       <c r="J232" t="s">
         <v>928</v>
       </c>
-      <c r="K232" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L232" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="M232" t="n">
-        <v>0.7919999999999999</v>
-      </c>
-      <c r="N232" t="n">
-        <v>0.773</v>
-      </c>
+      <c r="K232"/>
+      <c r="L232"/>
+      <c r="M232"/>
+      <c r="N232"/>
       <c r="O232" t="n">
         <v>2.34</v>
       </c>
@@ -16960,18 +15112,10 @@
       <c r="J233" t="s">
         <v>929</v>
       </c>
-      <c r="K233" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="L233" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="M233" t="n">
-        <v>1.557</v>
-      </c>
-      <c r="N233" t="n">
-        <v>1.0390000000000001</v>
-      </c>
+      <c r="K233"/>
+      <c r="L233"/>
+      <c r="M233"/>
+      <c r="N233"/>
       <c r="O233" t="n">
         <v>3.18</v>
       </c>
@@ -17013,18 +15157,10 @@
       <c r="J234" t="s">
         <v>930</v>
       </c>
-      <c r="K234" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L234" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="M234" t="n">
-        <v>1.076</v>
-      </c>
-      <c r="N234" t="n">
-        <v>2.011</v>
-      </c>
+      <c r="K234"/>
+      <c r="L234"/>
+      <c r="M234"/>
+      <c r="N234"/>
       <c r="O234" t="n">
         <v>2.6</v>
       </c>
@@ -17066,18 +15202,10 @@
       <c r="J235" t="s">
         <v>931</v>
       </c>
-      <c r="K235" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="L235" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="M235" t="n">
-        <v>1.076</v>
-      </c>
-      <c r="N235" t="n">
-        <v>0.846</v>
-      </c>
+      <c r="K235"/>
+      <c r="L235"/>
+      <c r="M235"/>
+      <c r="N235"/>
       <c r="O235" t="n">
         <v>1.393</v>
       </c>
@@ -17119,18 +15247,10 @@
       <c r="J236" t="s">
         <v>932</v>
       </c>
-      <c r="K236" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="L236" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="M236" t="n">
-        <v>1.991</v>
-      </c>
-      <c r="N236" t="n">
-        <v>1.0350000000000001</v>
-      </c>
+      <c r="K236"/>
+      <c r="L236"/>
+      <c r="M236"/>
+      <c r="N236"/>
       <c r="O236" t="n">
         <v>1.8</v>
       </c>
@@ -17172,18 +15292,10 @@
       <c r="J237" t="s">
         <v>933</v>
       </c>
-      <c r="K237" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L237" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="M237" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="N237" t="n">
-        <v>0.978</v>
-      </c>
+      <c r="K237"/>
+      <c r="L237"/>
+      <c r="M237"/>
+      <c r="N237"/>
       <c r="O237" t="n">
         <v>2.12</v>
       </c>
@@ -17225,18 +15337,10 @@
       <c r="J238" t="s">
         <v>934</v>
       </c>
-      <c r="K238" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="L238" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="M238" t="n">
-        <v>1.235</v>
-      </c>
-      <c r="N238" t="n">
-        <v>1.806</v>
-      </c>
+      <c r="K238"/>
+      <c r="L238"/>
+      <c r="M238"/>
+      <c r="N238"/>
       <c r="O238" t="n">
         <v>2.17</v>
       </c>
@@ -17278,18 +15382,10 @@
       <c r="J239" t="s">
         <v>935</v>
       </c>
-      <c r="K239" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="L239" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="M239" t="n">
-        <v>2.445</v>
-      </c>
-      <c r="N239" t="n">
-        <v>0.882</v>
-      </c>
+      <c r="K239"/>
+      <c r="L239"/>
+      <c r="M239"/>
+      <c r="N239"/>
       <c r="O239" t="n">
         <v>1.258</v>
       </c>
@@ -17331,18 +15427,10 @@
       <c r="J240" t="s">
         <v>936</v>
       </c>
-      <c r="K240" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="L240" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="M240" t="n">
-        <v>1.361</v>
-      </c>
-      <c r="N240" t="n">
-        <v>0.858</v>
-      </c>
+      <c r="K240"/>
+      <c r="L240"/>
+      <c r="M240"/>
+      <c r="N240"/>
       <c r="O240" t="n">
         <v>2.73</v>
       </c>
@@ -17384,18 +15472,10 @@
       <c r="J241" t="s">
         <v>937</v>
       </c>
-      <c r="K241" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="L241" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="M241" t="n">
-        <v>0.797</v>
-      </c>
-      <c r="N241" t="n">
-        <v>1.301</v>
-      </c>
+      <c r="K241"/>
+      <c r="L241"/>
+      <c r="M241"/>
+      <c r="N241"/>
       <c r="O241" t="n">
         <v>1.934</v>
       </c>
@@ -17437,18 +15517,10 @@
       <c r="J242" t="s">
         <v>938</v>
       </c>
-      <c r="K242" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="L242" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="M242" t="n">
-        <v>1.402</v>
-      </c>
-      <c r="N242" t="n">
-        <v>0.851</v>
-      </c>
+      <c r="K242"/>
+      <c r="L242"/>
+      <c r="M242"/>
+      <c r="N242"/>
       <c r="O242" t="n">
         <v>2.74</v>
       </c>
@@ -17490,18 +15562,10 @@
       <c r="J243" t="s">
         <v>938</v>
       </c>
-      <c r="K243" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="L243" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="M243" t="n">
-        <v>1.402</v>
-      </c>
-      <c r="N243" t="n">
-        <v>0.851</v>
-      </c>
+      <c r="K243"/>
+      <c r="L243"/>
+      <c r="M243"/>
+      <c r="N243"/>
       <c r="O243" t="n">
         <v>2.36</v>
       </c>
@@ -17543,18 +15607,10 @@
       <c r="J244" t="s">
         <v>879</v>
       </c>
-      <c r="K244" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="L244" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="M244" t="n">
-        <v>1.1560000000000001</v>
-      </c>
-      <c r="N244" t="n">
-        <v>0.658</v>
-      </c>
+      <c r="K244"/>
+      <c r="L244"/>
+      <c r="M244"/>
+      <c r="N244"/>
       <c r="O244" t="n">
         <v>1.671</v>
       </c>
@@ -17596,18 +15652,10 @@
       <c r="J245" t="s">
         <v>910</v>
       </c>
-      <c r="K245" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L245" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="M245" t="n">
-        <v>1.298</v>
-      </c>
-      <c r="N245" t="n">
-        <v>0.597</v>
-      </c>
+      <c r="K245"/>
+      <c r="L245"/>
+      <c r="M245"/>
+      <c r="N245"/>
       <c r="O245" t="n">
         <v>1.806</v>
       </c>
@@ -17649,18 +15697,10 @@
       <c r="J246" t="s">
         <v>939</v>
       </c>
-      <c r="K246" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L246" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="M246" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="N246" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K246"/>
+      <c r="L246"/>
+      <c r="M246"/>
+      <c r="N246"/>
       <c r="O246" t="n">
         <v>1.99</v>
       </c>
@@ -17702,18 +15742,10 @@
       <c r="J247" t="s">
         <v>940</v>
       </c>
-      <c r="K247" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="L247" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="M247" t="n">
-        <v>1.578</v>
-      </c>
-      <c r="N247" t="n">
-        <v>0.775</v>
-      </c>
+      <c r="K247"/>
+      <c r="L247"/>
+      <c r="M247"/>
+      <c r="N247"/>
       <c r="O247" t="n">
         <v>2.03</v>
       </c>
@@ -17755,18 +15787,10 @@
       <c r="J248" t="s">
         <v>941</v>
       </c>
-      <c r="K248" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="L248" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="M248" t="n">
-        <v>2.049</v>
-      </c>
-      <c r="N248" t="n">
-        <v>0.753</v>
-      </c>
+      <c r="K248"/>
+      <c r="L248"/>
+      <c r="M248"/>
+      <c r="N248"/>
       <c r="O248" t="n">
         <v>2.68</v>
       </c>
@@ -17808,18 +15832,10 @@
       <c r="J249" t="s">
         <v>942</v>
       </c>
-      <c r="K249" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="L249" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="M249" t="n">
-        <v>1.343</v>
-      </c>
-      <c r="N249" t="n">
-        <v>0.45399999999999996</v>
-      </c>
+      <c r="K249"/>
+      <c r="L249"/>
+      <c r="M249"/>
+      <c r="N249"/>
       <c r="O249" t="n">
         <v>1.389</v>
       </c>
@@ -17861,18 +15877,10 @@
       <c r="J250" t="s">
         <v>943</v>
       </c>
-      <c r="K250" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="L250" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="M250" t="n">
-        <v>1.657</v>
-      </c>
-      <c r="N250" t="n">
-        <v>0.984</v>
-      </c>
+      <c r="K250"/>
+      <c r="L250"/>
+      <c r="M250"/>
+      <c r="N250"/>
       <c r="O250" t="n">
         <v>2.44</v>
       </c>
@@ -17914,18 +15922,10 @@
       <c r="J251" t="s">
         <v>944</v>
       </c>
-      <c r="K251" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="L251" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="M251" t="n">
-        <v>0.552</v>
-      </c>
-      <c r="N251" t="n">
-        <v>1.1600000000000001</v>
-      </c>
+      <c r="K251"/>
+      <c r="L251"/>
+      <c r="M251"/>
+      <c r="N251"/>
       <c r="O251" t="n">
         <v>3.48</v>
       </c>
@@ -17967,18 +15967,10 @@
       <c r="J252" t="s">
         <v>945</v>
       </c>
-      <c r="K252" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="L252" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="M252" t="n">
-        <v>0.47800000000000004</v>
-      </c>
-      <c r="N252" t="n">
-        <v>1.835</v>
-      </c>
+      <c r="K252"/>
+      <c r="L252"/>
+      <c r="M252"/>
+      <c r="N252"/>
       <c r="O252" t="n">
         <v>7.4</v>
       </c>
@@ -18020,18 +16012,10 @@
       <c r="J253" t="s">
         <v>946</v>
       </c>
-      <c r="K253" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="L253" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="M253" t="n">
-        <v>1.536</v>
-      </c>
-      <c r="N253" t="n">
-        <v>1.01</v>
-      </c>
+      <c r="K253"/>
+      <c r="L253"/>
+      <c r="M253"/>
+      <c r="N253"/>
       <c r="O253" t="n">
         <v>2.68</v>
       </c>
@@ -18073,18 +16057,10 @@
       <c r="J254" t="s">
         <v>947</v>
       </c>
-      <c r="K254" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="L254" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="M254" t="n">
-        <v>0.892</v>
-      </c>
-      <c r="N254" t="n">
-        <v>1.088</v>
-      </c>
+      <c r="K254"/>
+      <c r="L254"/>
+      <c r="M254"/>
+      <c r="N254"/>
       <c r="O254" t="n">
         <v>2.46</v>
       </c>
@@ -18126,18 +16102,10 @@
       <c r="J255" t="s">
         <v>948</v>
       </c>
-      <c r="K255" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="L255" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="M255" t="n">
-        <v>1.3639999999999999</v>
-      </c>
-      <c r="N255" t="n">
-        <v>1.012</v>
-      </c>
+      <c r="K255"/>
+      <c r="L255"/>
+      <c r="M255"/>
+      <c r="N255"/>
       <c r="O255" t="n">
         <v>2.31</v>
       </c>
@@ -18179,18 +16147,10 @@
       <c r="J256" t="s">
         <v>949</v>
       </c>
-      <c r="K256" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="L256" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="M256" t="n">
-        <v>1.638</v>
-      </c>
-      <c r="N256" t="n">
-        <v>0.856</v>
-      </c>
+      <c r="K256"/>
+      <c r="L256"/>
+      <c r="M256"/>
+      <c r="N256"/>
       <c r="O256" t="n">
         <v>1.515</v>
       </c>
@@ -18232,18 +16192,10 @@
       <c r="J257" t="s">
         <v>759</v>
       </c>
-      <c r="K257" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="L257" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="M257" t="n">
-        <v>1.258</v>
-      </c>
-      <c r="N257" t="n">
-        <v>0.842</v>
-      </c>
+      <c r="K257"/>
+      <c r="L257"/>
+      <c r="M257"/>
+      <c r="N257"/>
       <c r="O257" t="n">
         <v>2.28</v>
       </c>
@@ -18285,18 +16237,10 @@
       <c r="J258" t="s">
         <v>950</v>
       </c>
-      <c r="K258" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="L258" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="M258" t="n">
-        <v>1.294</v>
-      </c>
-      <c r="N258" t="n">
-        <v>0.728</v>
-      </c>
+      <c r="K258"/>
+      <c r="L258"/>
+      <c r="M258"/>
+      <c r="N258"/>
       <c r="O258" t="n">
         <v>1.325</v>
       </c>
@@ -18338,18 +16282,10 @@
       <c r="J259" t="s">
         <v>951</v>
       </c>
-      <c r="K259" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="L259" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="M259" t="n">
-        <v>1.658</v>
-      </c>
-      <c r="N259" t="n">
-        <v>1.496</v>
-      </c>
+      <c r="K259"/>
+      <c r="L259"/>
+      <c r="M259"/>
+      <c r="N259"/>
       <c r="O259" t="n">
         <v>2.72</v>
       </c>
@@ -18391,18 +16327,10 @@
       <c r="J260" t="s">
         <v>952</v>
       </c>
-      <c r="K260" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="L260" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="M260" t="n">
-        <v>1.271</v>
-      </c>
-      <c r="N260" t="n">
-        <v>0.705</v>
-      </c>
+      <c r="K260"/>
+      <c r="L260"/>
+      <c r="M260"/>
+      <c r="N260"/>
       <c r="O260" t="n">
         <v>1.492</v>
       </c>
@@ -18444,18 +16372,10 @@
       <c r="J261" t="s">
         <v>953</v>
       </c>
-      <c r="K261" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="L261" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="M261" t="n">
-        <v>0.6920000000000001</v>
-      </c>
-      <c r="N261" t="n">
-        <v>1.218</v>
-      </c>
+      <c r="K261"/>
+      <c r="L261"/>
+      <c r="M261"/>
+      <c r="N261"/>
       <c r="O261" t="n">
         <v>3.18</v>
       </c>
@@ -18497,18 +16417,10 @@
       <c r="J262" t="s">
         <v>954</v>
       </c>
-      <c r="K262" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="L262" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="M262" t="n">
-        <v>0.738</v>
-      </c>
-      <c r="N262" t="n">
-        <v>0.918</v>
-      </c>
+      <c r="K262"/>
+      <c r="L262"/>
+      <c r="M262"/>
+      <c r="N262"/>
       <c r="O262" t="n">
         <v>1.454</v>
       </c>
@@ -18550,18 +16462,10 @@
       <c r="J263" t="s">
         <v>955</v>
       </c>
-      <c r="K263" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="L263" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="M263" t="n">
-        <v>1.701</v>
-      </c>
-      <c r="N263" t="n">
-        <v>0.543</v>
-      </c>
+      <c r="K263"/>
+      <c r="L263"/>
+      <c r="M263"/>
+      <c r="N263"/>
       <c r="O263" t="n">
         <v>2.26</v>
       </c>
@@ -18603,18 +16507,10 @@
       <c r="J264" t="s">
         <v>956</v>
       </c>
-      <c r="K264" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="L264" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="M264" t="n">
-        <v>1.183</v>
-      </c>
-      <c r="N264" t="n">
-        <v>1.023</v>
-      </c>
+      <c r="K264"/>
+      <c r="L264"/>
+      <c r="M264"/>
+      <c r="N264"/>
       <c r="O264" t="n">
         <v>2.58</v>
       </c>
@@ -18656,18 +16552,10 @@
       <c r="J265" t="s">
         <v>957</v>
       </c>
-      <c r="K265" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="L265" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="M265" t="n">
-        <v>1.364</v>
-      </c>
-      <c r="N265" t="n">
-        <v>0.825</v>
-      </c>
+      <c r="K265"/>
+      <c r="L265"/>
+      <c r="M265"/>
+      <c r="N265"/>
       <c r="O265" t="n">
         <v>1.819</v>
       </c>
@@ -18709,18 +16597,10 @@
       <c r="J266" t="s">
         <v>958</v>
       </c>
-      <c r="K266" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="L266" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="M266" t="n">
-        <v>0.881</v>
-      </c>
-      <c r="N266" t="n">
-        <v>1.383</v>
-      </c>
+      <c r="K266"/>
+      <c r="L266"/>
+      <c r="M266"/>
+      <c r="N266"/>
       <c r="O266" t="n">
         <v>3.61</v>
       </c>
@@ -18762,18 +16642,10 @@
       <c r="J267" t="s">
         <v>172</v>
       </c>
-      <c r="K267" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="L267" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="M267" t="n">
-        <v>0.747</v>
-      </c>
-      <c r="N267" t="n">
-        <v>0.821</v>
-      </c>
+      <c r="K267"/>
+      <c r="L267"/>
+      <c r="M267"/>
+      <c r="N267"/>
       <c r="O267" t="n">
         <v>3.33</v>
       </c>
@@ -18815,18 +16687,10 @@
       <c r="J268" t="s">
         <v>959</v>
       </c>
-      <c r="K268" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L268" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="M268" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N268" t="n">
-        <v>0.713</v>
-      </c>
+      <c r="K268"/>
+      <c r="L268"/>
+      <c r="M268"/>
+      <c r="N268"/>
       <c r="O268" t="n">
         <v>1.438</v>
       </c>
@@ -18868,18 +16732,10 @@
       <c r="J269" t="s">
         <v>960</v>
       </c>
-      <c r="K269" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="L269" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="M269" t="n">
-        <v>1.539</v>
-      </c>
-      <c r="N269" t="n">
-        <v>1.07</v>
-      </c>
+      <c r="K269"/>
+      <c r="L269"/>
+      <c r="M269"/>
+      <c r="N269"/>
       <c r="O269" t="n">
         <v>3.34</v>
       </c>
@@ -18921,18 +16777,10 @@
       <c r="J270" t="s">
         <v>961</v>
       </c>
-      <c r="K270" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="L270" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="M270" t="n">
-        <v>0.8470000000000001</v>
-      </c>
-      <c r="N270" t="n">
-        <v>1.081</v>
-      </c>
+      <c r="K270"/>
+      <c r="L270"/>
+      <c r="M270"/>
+      <c r="N270"/>
       <c r="O270" t="n">
         <v>2.78</v>
       </c>
@@ -18974,18 +16822,10 @@
       <c r="J271" t="s">
         <v>962</v>
       </c>
-      <c r="K271" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="L271" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="M271" t="n">
-        <v>0.849</v>
-      </c>
-      <c r="N271" t="n">
-        <v>0.769</v>
-      </c>
+      <c r="K271"/>
+      <c r="L271"/>
+      <c r="M271"/>
+      <c r="N271"/>
       <c r="O271" t="n">
         <v>3.64</v>
       </c>
@@ -19027,18 +16867,10 @@
       <c r="J272" t="s">
         <v>962</v>
       </c>
-      <c r="K272" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="L272" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="M272" t="n">
-        <v>0.849</v>
-      </c>
-      <c r="N272" t="n">
-        <v>0.769</v>
-      </c>
+      <c r="K272"/>
+      <c r="L272"/>
+      <c r="M272"/>
+      <c r="N272"/>
       <c r="O272" t="n">
         <v>2.9</v>
       </c>
@@ -19080,18 +16912,10 @@
       <c r="J273" t="s">
         <v>963</v>
       </c>
-      <c r="K273" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="L273" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="M273" t="n">
-        <v>0.539</v>
-      </c>
-      <c r="N273" t="n">
-        <v>1.529</v>
-      </c>
+      <c r="K273"/>
+      <c r="L273"/>
+      <c r="M273"/>
+      <c r="N273"/>
       <c r="O273" t="n">
         <v>3.28</v>
       </c>
@@ -19133,18 +16957,10 @@
       <c r="J274" t="s">
         <v>964</v>
       </c>
-      <c r="K274" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="L274" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="M274" t="n">
-        <v>0.943</v>
-      </c>
-      <c r="N274" t="n">
-        <v>0.846</v>
-      </c>
+      <c r="K274"/>
+      <c r="L274"/>
+      <c r="M274"/>
+      <c r="N274"/>
       <c r="O274" t="n">
         <v>2.81</v>
       </c>
@@ -19186,18 +17002,10 @@
       <c r="J275" t="s">
         <v>965</v>
       </c>
-      <c r="K275" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="L275" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="M275" t="n">
-        <v>1.488</v>
-      </c>
-      <c r="N275" t="n">
-        <v>0.564</v>
-      </c>
+      <c r="K275"/>
+      <c r="L275"/>
+      <c r="M275"/>
+      <c r="N275"/>
       <c r="O275" t="n">
         <v>3.16</v>
       </c>
@@ -19239,18 +17047,10 @@
       <c r="J276" t="s">
         <v>965</v>
       </c>
-      <c r="K276" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="L276" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="M276" t="n">
-        <v>1.488</v>
-      </c>
-      <c r="N276" t="n">
-        <v>0.564</v>
-      </c>
+      <c r="K276"/>
+      <c r="L276"/>
+      <c r="M276"/>
+      <c r="N276"/>
       <c r="O276" t="n">
         <v>2.94</v>
       </c>
@@ -19292,18 +17092,10 @@
       <c r="J277" t="s">
         <v>966</v>
       </c>
-      <c r="K277" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="L277" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="M277" t="n">
-        <v>1.333</v>
-      </c>
-      <c r="N277" t="n">
-        <v>1.403</v>
-      </c>
+      <c r="K277"/>
+      <c r="L277"/>
+      <c r="M277"/>
+      <c r="N277"/>
       <c r="O277" t="n">
         <v>1.584</v>
       </c>
@@ -19345,18 +17137,10 @@
       <c r="J278" t="s">
         <v>967</v>
       </c>
-      <c r="K278" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="L278" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="M278" t="n">
-        <v>1.698</v>
-      </c>
-      <c r="N278" t="n">
-        <v>1.846</v>
-      </c>
+      <c r="K278"/>
+      <c r="L278"/>
+      <c r="M278"/>
+      <c r="N278"/>
       <c r="O278" t="n">
         <v>5.39</v>
       </c>
@@ -19398,18 +17182,10 @@
       <c r="J279" t="s">
         <v>968</v>
       </c>
-      <c r="K279" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="L279" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="M279" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="N279" t="n">
-        <v>0.883</v>
-      </c>
+      <c r="K279"/>
+      <c r="L279"/>
+      <c r="M279"/>
+      <c r="N279"/>
       <c r="O279" t="n">
         <v>1.344</v>
       </c>
@@ -19451,18 +17227,10 @@
       <c r="J280" t="s">
         <v>969</v>
       </c>
-      <c r="K280" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="L280" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="M280" t="n">
-        <v>1.0110000000000001</v>
-      </c>
-      <c r="N280" t="n">
-        <v>1.123</v>
-      </c>
+      <c r="K280"/>
+      <c r="L280"/>
+      <c r="M280"/>
+      <c r="N280"/>
       <c r="O280" t="n">
         <v>2.18</v>
       </c>
@@ -19504,18 +17272,10 @@
       <c r="J281" t="s">
         <v>923</v>
       </c>
-      <c r="K281" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="L281" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="M281" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="N281" t="n">
-        <v>0.878</v>
-      </c>
+      <c r="K281"/>
+      <c r="L281"/>
+      <c r="M281"/>
+      <c r="N281"/>
       <c r="O281" t="n">
         <v>1.555</v>
       </c>
@@ -19557,18 +17317,10 @@
       <c r="J282" t="s">
         <v>970</v>
       </c>
-      <c r="K282" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="L282" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="M282" t="n">
-        <v>1.906</v>
-      </c>
-      <c r="N282" t="n">
-        <v>0.594</v>
-      </c>
+      <c r="K282"/>
+      <c r="L282"/>
+      <c r="M282"/>
+      <c r="N282"/>
       <c r="O282" t="n">
         <v>1.719</v>
       </c>
@@ -19610,18 +17362,10 @@
       <c r="J283" t="s">
         <v>971</v>
       </c>
-      <c r="K283" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="L283" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="M283" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="N283" t="n">
-        <v>1.697</v>
-      </c>
+      <c r="K283"/>
+      <c r="L283"/>
+      <c r="M283"/>
+      <c r="N283"/>
       <c r="O283" t="n">
         <v>2.12</v>
       </c>
@@ -19663,18 +17407,10 @@
       <c r="J284" t="s">
         <v>972</v>
       </c>
-      <c r="K284" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="L284" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="M284" t="n">
-        <v>1.029</v>
-      </c>
-      <c r="N284" t="n">
-        <v>0.735</v>
-      </c>
+      <c r="K284"/>
+      <c r="L284"/>
+      <c r="M284"/>
+      <c r="N284"/>
       <c r="O284" t="n">
         <v>2.19</v>
       </c>
@@ -19716,18 +17452,10 @@
       <c r="J285" t="s">
         <v>973</v>
       </c>
-      <c r="K285" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="L285" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="M285" t="n">
-        <v>1.152</v>
-      </c>
-      <c r="N285" t="n">
-        <v>0.291</v>
-      </c>
+      <c r="K285"/>
+      <c r="L285"/>
+      <c r="M285"/>
+      <c r="N285"/>
       <c r="O285" t="n">
         <v>1.917</v>
       </c>
@@ -19769,18 +17497,10 @@
       <c r="J286" t="s">
         <v>764</v>
       </c>
-      <c r="K286" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="L286" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="M286" t="n">
-        <v>1.112</v>
-      </c>
-      <c r="N286" t="n">
-        <v>0.81</v>
-      </c>
+      <c r="K286"/>
+      <c r="L286"/>
+      <c r="M286"/>
+      <c r="N286"/>
       <c r="O286" t="n">
         <v>1.724</v>
       </c>
@@ -19822,18 +17542,10 @@
       <c r="J287" t="s">
         <v>974</v>
       </c>
-      <c r="K287" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="L287" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="M287" t="n">
-        <v>0.843</v>
-      </c>
-      <c r="N287" t="n">
-        <v>1.274</v>
-      </c>
+      <c r="K287"/>
+      <c r="L287"/>
+      <c r="M287"/>
+      <c r="N287"/>
       <c r="O287" t="n">
         <v>2.38</v>
       </c>
@@ -19875,18 +17587,10 @@
       <c r="J288" t="s">
         <v>975</v>
       </c>
-      <c r="K288" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="L288" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="M288" t="n">
-        <v>0.5800000000000001</v>
-      </c>
-      <c r="N288" t="n">
-        <v>1.4160000000000001</v>
-      </c>
+      <c r="K288"/>
+      <c r="L288"/>
+      <c r="M288"/>
+      <c r="N288"/>
       <c r="O288" t="n">
         <v>3.56</v>
       </c>
@@ -19928,18 +17632,10 @@
       <c r="J289" t="s">
         <v>976</v>
       </c>
-      <c r="K289" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="L289" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="M289" t="n">
-        <v>1.591</v>
-      </c>
-      <c r="N289" t="n">
-        <v>1.123</v>
-      </c>
+      <c r="K289"/>
+      <c r="L289"/>
+      <c r="M289"/>
+      <c r="N289"/>
       <c r="O289" t="n">
         <v>2.16</v>
       </c>
@@ -19981,18 +17677,10 @@
       <c r="J290" t="s">
         <v>977</v>
       </c>
-      <c r="K290" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="L290" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="M290" t="n">
-        <v>1.256</v>
-      </c>
-      <c r="N290" t="n">
-        <v>1.067</v>
-      </c>
+      <c r="K290"/>
+      <c r="L290"/>
+      <c r="M290"/>
+      <c r="N290"/>
       <c r="O290" t="n">
         <v>2.97</v>
       </c>
@@ -20034,18 +17722,10 @@
       <c r="J291" t="s">
         <v>978</v>
       </c>
-      <c r="K291" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="L291" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="M291" t="n">
-        <v>1.9020000000000001</v>
-      </c>
-      <c r="N291" t="n">
-        <v>1.438</v>
-      </c>
+      <c r="K291"/>
+      <c r="L291"/>
+      <c r="M291"/>
+      <c r="N291"/>
       <c r="O291" t="n">
         <v>2.04</v>
       </c>
@@ -20087,18 +17767,10 @@
       <c r="J292" t="s">
         <v>979</v>
       </c>
-      <c r="K292" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="L292" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="M292" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="N292" t="n">
-        <v>0.722</v>
-      </c>
+      <c r="K292"/>
+      <c r="L292"/>
+      <c r="M292"/>
+      <c r="N292"/>
       <c r="O292" t="n">
         <v>1.854</v>
       </c>
@@ -20140,18 +17812,10 @@
       <c r="J293" t="s">
         <v>980</v>
       </c>
-      <c r="K293" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="L293" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="M293" t="n">
-        <v>1.9869999999999999</v>
-      </c>
-      <c r="N293" t="n">
-        <v>0.9209999999999999</v>
-      </c>
+      <c r="K293"/>
+      <c r="L293"/>
+      <c r="M293"/>
+      <c r="N293"/>
       <c r="O293" t="n">
         <v>1.492</v>
       </c>
@@ -20193,18 +17857,10 @@
       <c r="J294" t="s">
         <v>981</v>
       </c>
-      <c r="K294" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="L294" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="M294" t="n">
-        <v>0.708</v>
-      </c>
-      <c r="N294" t="n">
-        <v>1.934</v>
-      </c>
+      <c r="K294"/>
+      <c r="L294"/>
+      <c r="M294"/>
+      <c r="N294"/>
       <c r="O294" t="n">
         <v>5.24</v>
       </c>
@@ -20246,18 +17902,10 @@
       <c r="J295" t="s">
         <v>982</v>
       </c>
-      <c r="K295" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="L295" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="M295" t="n">
-        <v>0.972</v>
-      </c>
-      <c r="N295" t="n">
-        <v>0.782</v>
-      </c>
+      <c r="K295"/>
+      <c r="L295"/>
+      <c r="M295"/>
+      <c r="N295"/>
       <c r="O295" t="n">
         <v>1.99</v>
       </c>
@@ -20724,13 +18372,13 @@
         <v>987</v>
       </c>
       <c r="K304" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="L304" t="n">
         <v>12.0</v>
       </c>
       <c r="M304" t="n">
-        <v>0.991</v>
+        <v>0.952</v>
       </c>
       <c r="N304" t="n">
         <v>1.051</v>
@@ -21147,18 +18795,10 @@
       <c r="J312" t="s">
         <v>722</v>
       </c>
-      <c r="K312" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="L312" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="M312" t="n">
-        <v>1.037</v>
-      </c>
-      <c r="N312" t="n">
-        <v>0.614</v>
-      </c>
+      <c r="K312"/>
+      <c r="L312"/>
+      <c r="M312"/>
+      <c r="N312"/>
       <c r="O312" t="n">
         <v>1.826</v>
       </c>
@@ -21200,18 +18840,10 @@
       <c r="J313" t="s">
         <v>995</v>
       </c>
-      <c r="K313" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="L313" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="M313" t="n">
-        <v>1.558</v>
-      </c>
-      <c r="N313" t="n">
-        <v>0.823</v>
-      </c>
+      <c r="K313"/>
+      <c r="L313"/>
+      <c r="M313"/>
+      <c r="N313"/>
       <c r="O313" t="n">
         <v>5.19</v>
       </c>
